--- a/BackTest/2020-01-23 BackTest SOC.xlsx
+++ b/BackTest/2020-01-23 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-325392.3245111111</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-405462.2472111111</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-405462.2472111111</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-343266.5793111111</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-343266.5793111111</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-343266.5793111111</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-401336.1205111111</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-360588.0094111111</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-367789.7901111111</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-367789.7901111111</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-421898.5147111111</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-404600.3096111111</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-566821.7448111111</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-654591.2754111111</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-654591.2754111111</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-796505.870011111</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-796505.870011111</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-778300.1526111111</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-769601.0350111111</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-769601.0350111111</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-783759.426211111</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1138668.324711111</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1304531.071311111</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1263843.715111111</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1305158.759311111</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1281262.343711111</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1319393.001211111</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1291499.259511111</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1291499.259511111</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1291499.259511111</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1306104.978611111</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1306104.978611111</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1306104.978611111</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1306104.978611111</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1354155.505111111</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1354155.505111111</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1301533.678211111</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1236377.154811111</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1287748.725811111</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1287748.725811111</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1270422.846211111</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1358087.535711111</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1350598.385711111</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1417548.521711111</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1461628.755011111</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1455083.207411111</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1463316.381311111</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1438804.365811111</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1460187.618111111</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1519197.400711111</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1477724.522111111</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1444906.218711111</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1454224.971211111</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1329200.280211111</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1329200.280211111</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1329200.280211111</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1329200.280211111</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1329200.280211111</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1310973.015711111</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1352790.220311111</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-1190626.992711111</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1190626.992711111</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-1190626.992711111</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1203510.363211111</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1210973.459211111</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1210973.459211111</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1204375.508111111</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-1211858.064711111</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1205342.680311111</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-1213152.920811111</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-1219666.159511111</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-1211660.137911111</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1265740.253211111</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-1309925.098211111</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1091491.645811111</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-851200.7502111108</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-790782.7528111108</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-798122.4916111109</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-789254.1145111108</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-800644.4177111108</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-800644.4177111108</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-781422.9066111108</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-781422.9066111108</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-774511.2056111108</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-789277.2161111108</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-789277.2161111108</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-795970.0883111107</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-943321.5285111107</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-943321.5285111107</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-943321.5285111107</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-932705.1483111107</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-923702.7263111107</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-930172.8758111107</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-936815.2659111107</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-944408.3250111106</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-930485.9907111106</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-995801.5647111107</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-911979.1777111107</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-982600.4119111106</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-897652.1800111106</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-971162.1752111106</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-965280.9850111107</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-971583.6268111106</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-963608.9984111106</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-963608.9984111106</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-980699.2428111106</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1006675.669211111</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-987644.1287111106</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1014312.420411111</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1088970.771011111</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1062238.152511111</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1069156.974711111</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1069156.974711111</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1062050.618311111</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1070048.018111111</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1060686.847011111</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-1066161.877611111</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1059534.263111111</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-1066499.927111111</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-1066499.927111111</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-1059724.292611111</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-1057489.149111111</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-1046341.437211111</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1046341.437211111</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1046341.437211111</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1046341.437211111</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1046341.437211111</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1025792.173311111</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1025792.173311111</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-964241.705911111</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-964241.705911111</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-970278.702211111</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-963539.785611111</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-969741.4486111109</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-962863.8838111109</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-962863.8838111109</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-970314.6519111109</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-970314.6519111109</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-962918.6064111108</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-968724.8396111109</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-953822.4916111109</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-962421.7563111109</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-955070.2845111109</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-962209.9743111109</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-962209.9743111109</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-953365.776711111</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-973771.4092111109</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-990645.0559111109</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-990645.0559111109</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-990645.0559111109</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-990645.0559111109</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-990645.0559111109</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-990645.0559111109</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1046194.896411111</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-1054331.333411111</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-1048547.516511111</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-1048547.516511111</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-1048547.516511111</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-1055503.321511111</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-1062290.385911111</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-1047259.310211111</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-1071229.277911111</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-1045973.054411111</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-1052248.197711111</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-1045052.604711111</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-1039644.071511111</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-1039644.071511111</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-1046157.661211111</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-1046157.661211111</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-1055511.913611111</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1055511.913611111</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1055511.913611111</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-1055511.913611111</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-1055511.913611111</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-1309673.123111111</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-1540692.196111111</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-1448451.170811111</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-1320917.322711111</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-1492429.770511111</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-1430221.691511111</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-1480643.635211111</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-1346681.855211111</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-1193448.439811111</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-1237211.938311111</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-1192808.903311111</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-1208631.179011111</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-1095291.901311111</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-1170773.729711111</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-1158165.780211111</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-1181476.410011111</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-1217339.395511111</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-1077298.596311111</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-867336.252611111</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-892961.981911111</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-1165700.672611111</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-1005667.692611111</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-1092448.263011111</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-430854.366081448</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-492275.397081448</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>597149.9748540942</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>651856.4607540942</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>539884.9505540942</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>580834.3883540941</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>531383.8926540941</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>518498.3571540941</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>524146.4377540941</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>554421.1129540942</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>684489.8300540942</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>664546.2921540942</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>678162.5232540942</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>605516.2844540941</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>764355.9148540942</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>668946.4274540942</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>639350.6443540942</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>232481.5561540942</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>232481.5561540942</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>198298.2668540942</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>249670.1984540942</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>260081.0459540942</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>216428.2193540942</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>151907.3196540942</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>140369.3708540942</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>194142.7250540942</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>115201.4096540942</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>162280.0339540942</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>131331.6527540942</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>20554.47675409421</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>102280.5910540942</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>48036.53485409421</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>153726.7526540942</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>133495.4090777773</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>255171.2524777773</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>200193.5081777773</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>92494.83627777731</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>29893.14337777731</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>29893.14337777731</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>41777.33547777731</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>41777.33547777731</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>34834.68537777731</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>47733.46677777731</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>24733.21087777731</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>103999.1896777773</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>205489.4533777773</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>121275.2545777773</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>53434.82817777731</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-87900.81952222269</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-262821.0290222227</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-208431.0795222227</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-402775.5500222227</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-368659.9642222227</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>104825.3254466503</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-71634.12765334973</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-45385.42665334973</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-79095.87095334973</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-31435.18545334973</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-56652.44915334973</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-56652.44915334973</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-14961.41845334973</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-84339.43925334973</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-174174.0485533497</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-265741.8966533497</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-212680.0847533497</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-193362.2314533498</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-256110.9945533497</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-394695.9422533497</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-385773.7131533497</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-362340.0909533497</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-372602.9647533497</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-365868.1871533497</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-428738.2179533498</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-383527.4283533497</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-258581.6174533498</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-291034.9757533498</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-330389.3252533498</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-286051.0103533498</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-287736.9256533498</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-304428.3043533498</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-304428.3043533498</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-181165.3389533498</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-181165.3389533498</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-75561.9817533498</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>2296.011246650203</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-114699.2626533498</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-43721.63785334979</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-135135.2517533498</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-58264.83065334978</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>14286.95884665022</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-51066.72435334978</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-173066.2853533498</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-140050.9462533498</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-184782.4090533498</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-208457.5035533498</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-233762.9354533498</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-112907.4738533498</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>13762.73894665021</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-38363.78135334979</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-9737.772253349791</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-43238.08075334979</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-34688.10325334979</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-3754.789053349785</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-26328.37325334979</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-35190.72615334979</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>37071.28964665021</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>1733.353346650205</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-278507.7547533498</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-224463.5784533498</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-44476.94495334983</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-139401.2924533498</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-193224.1095533498</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-311372.6616533499</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-294407.0237533499</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-283096.3214533499</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-305813.6681533499</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-340155.4064533499</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-369324.9731533499</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-349741.2044533499</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-296982.2683533499</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-264777.4353533499</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-233409.9070533499</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-267693.9079533499</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-256694.8540533499</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-269643.1927533499</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-485755.7701533499</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-485705.7701533499</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-1476072.20895335</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-1452329.73415335</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-1733028.14495335</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-1857463.95525335</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-1857463.95525335</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-1857463.95525335</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-1811574.23725335</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-1880750.82625335</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-1834978.67385335</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-1807373.52405335</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-2209789.360553349</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-2067237.217453349</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-1867729.138053349</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-1867729.138053349</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-1867729.138053349</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-1867729.138053349</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-1961900.100953349</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-1908071.383753349</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-2434309.817653349</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-2320740.524853349</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-2334848.471153349</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-2334848.471153349</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-2738211.717053349</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-2709199.035853349</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-2765202.037953349</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-2757670.837853349</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-2757670.837853349</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-2834078.504253349</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-2834078.504253349</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-2806562.000553349</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-2830542.203553349</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-2797138.273353349</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-2955031.73485335</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-2955031.73485335</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-3005347.38085335</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-2996469.81635335</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-2987002.01195335</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-3033172.98655335</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-3033172.98655335</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-3033172.98655335</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-3065803.65345335</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-3065803.65345335</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-2970435.39835335</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-2970435.39835335</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-2970435.39835335</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-2970435.39835335</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-2936760.84995335</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-3561470.02115335</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-3651513.809953351</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-3651513.809953351</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-3641290.914053351</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-3385092.048053351</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-3385092.048053351</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-3210092.339953351</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-3148249.099153351</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>-2321407.500640716</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>-2270705.233840716</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>-2688544.187140716</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26059,7 @@
         <v>-2671252.559040716</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>-2671252.559040716</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26125,7 +26125,7 @@
         <v>-2544650.009528081</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
         <v>-2544650.009528081</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>-3331384.079428081</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>-3658448.291128081</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>-3744558.775728081</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>-3669568.668528081</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>-3669568.668528081</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>-3627423.761028081</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>-3680924.35792808</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>-3658090.433728081</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>-3589330.785128081</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>-3603010.557728081</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>-3603010.557728081</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>-3603010.557728081</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>-3603010.557728081</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>-3652334.61102808</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>-3652334.61102808</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>-3652334.61102808</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>-3513601.01892808</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>-3473621.145255742</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>-2561324.722735722</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>-2561324.722735722</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>-2561324.722735722</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>-2561324.722735722</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28435,7 +28435,7 @@
         <v>-2561324.722735722</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>-2561324.722735722</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>-2561324.722735722</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>-2790479.309735722</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28633,7 +28633,7 @@
         <v>-2790479.309735722</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28666,7 +28666,7 @@
         <v>-2790479.309735722</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28699,7 +28699,7 @@
         <v>-2790479.309735722</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28732,7 +28732,7 @@
         <v>-2763455.999835722</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28765,7 +28765,7 @@
         <v>-2763455.999835722</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28798,7 +28798,7 @@
         <v>-2738334.484135722</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -28831,7 +28831,7 @@
         <v>-2750891.151435722</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28864,7 +28864,7 @@
         <v>-2744145.607335722</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -28897,7 +28897,7 @@
         <v>-2744145.607335722</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -28930,7 +28930,7 @@
         <v>-2744145.607335722</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -28963,7 +28963,7 @@
         <v>-2744145.607335722</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -28996,7 +28996,7 @@
         <v>-2614408.080735722</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29029,7 +29029,7 @@
         <v>-2614408.080735722</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29062,7 +29062,7 @@
         <v>-2614408.080735722</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29095,7 +29095,7 @@
         <v>-2614408.080735722</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29128,7 +29128,7 @@
         <v>-2705398.769035722</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29161,7 +29161,7 @@
         <v>-2625662.126535722</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29194,7 +29194,7 @@
         <v>-2498593.605916881</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29227,7 +29227,7 @@
         <v>-2498593.605916881</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29260,7 +29260,7 @@
         <v>-2498593.605916881</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29293,7 +29293,7 @@
         <v>-2539231.137316881</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29326,7 +29326,7 @@
         <v>-2503830.671316881</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29359,7 +29359,7 @@
         <v>-2609124.588316881</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29392,7 +29392,7 @@
         <v>-2609124.588316881</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29425,7 +29425,7 @@
         <v>-2131532.934816881</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -29458,7 +29458,7 @@
         <v>-2597406.028516881</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29491,7 +29491,7 @@
         <v>-2034145.122616881</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29524,7 +29524,7 @@
         <v>-2034145.122616881</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29557,7 +29557,7 @@
         <v>-2034145.122616881</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29590,7 +29590,7 @@
         <v>-2471768.308916881</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29623,7 +29623,7 @@
         <v>-2237917.289716881</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29656,7 +29656,7 @@
         <v>-1988347.385216881</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -29689,7 +29689,7 @@
         <v>-2062534.616016881</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -29722,7 +29722,7 @@
         <v>-2009278.981216881</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -29755,7 +29755,7 @@
         <v>-2009278.981216881</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -29788,7 +29788,7 @@
         <v>-1903053.046416881</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -29821,7 +29821,7 @@
         <v>-2200778.363816882</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -29854,7 +29854,7 @@
         <v>-2200778.363816882</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -29887,7 +29887,7 @@
         <v>-1924224.075216881</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -29920,7 +29920,7 @@
         <v>-2173261.696816882</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -29953,7 +29953,7 @@
         <v>-2001438.926116882</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -29986,7 +29986,7 @@
         <v>-2063755.910316882</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30019,7 +30019,7 @@
         <v>-2063755.910316882</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30052,7 +30052,7 @@
         <v>-2141341.832016882</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30085,7 +30085,7 @@
         <v>-2141341.832016882</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30118,7 +30118,7 @@
         <v>-2009214.428316882</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30151,7 +30151,7 @@
         <v>-2009214.428316882</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30184,7 +30184,7 @@
         <v>-1970952.374016882</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30217,7 +30217,7 @@
         <v>-1970952.374016882</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>-2683616.440916882</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>-3061700.072716882</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>-3027403.288716882</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>-2891596.275416882</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>-2936151.473616882</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>-2936151.473616882</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>-3011650.146416882</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>-3022556.964416882</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>-2990262.144616881</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>-3060506.093716881</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>-2936323.361116881</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30712,7 +30712,7 @@
         <v>-2922501.288616881</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>-2931005.994016881</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30910,7 +30910,7 @@
         <v>-2767235.385516881</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -30943,7 +30943,7 @@
         <v>-2767235.385516881</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -30976,7 +30976,7 @@
         <v>-2966255.854416881</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31009,7 +31009,7 @@
         <v>-2954497.107716881</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31042,7 +31042,7 @@
         <v>-3046300.178216881</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31075,7 +31075,7 @@
         <v>-2914656.317816881</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31108,7 +31108,7 @@
         <v>-2958975.328616881</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31141,7 +31141,7 @@
         <v>-2984543.567716881</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31174,7 +31174,7 @@
         <v>-2984543.567716881</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>-3048566.17941688</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>-2955996.807316881</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>-2955996.807316881</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>-2910616.437816881</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>-2910616.437816881</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -33187,7 +33187,7 @@
         <v>-5448373.349240601</v>
       </c>
       <c r="H994" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -33418,7 +33418,7 @@
         <v>-4638100.952240601</v>
       </c>
       <c r="H1001" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -33451,7 +33451,7 @@
         <v>-4678138.972540601</v>
       </c>
       <c r="H1002" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -33484,7 +33484,7 @@
         <v>-4634013.407640602</v>
       </c>
       <c r="H1003" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -33517,7 +33517,7 @@
         <v>-4631164.993040602</v>
       </c>
       <c r="H1004" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -33550,7 +33550,7 @@
         <v>-5096587.048740602</v>
       </c>
       <c r="H1005" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -33583,7 +33583,7 @@
         <v>-4828540.800940602</v>
       </c>
       <c r="H1006" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -34441,7 +34441,7 @@
         <v>-4659848.724527963</v>
       </c>
       <c r="H1032" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -34474,7 +34474,7 @@
         <v>-4717911.057627963</v>
       </c>
       <c r="H1033" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -34507,7 +34507,7 @@
         <v>-4908336.596427963</v>
       </c>
       <c r="H1034" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -38104,11 +38104,17 @@
         <v>-7285359.207118076</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>10.34</v>
+      </c>
       <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr"/>
+      <c r="K1143" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -38137,11 +38143,17 @@
         <v>-7378425.923018076</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>10.34</v>
+      </c>
       <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr"/>
+      <c r="K1144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -38170,11 +38182,17 @@
         <v>-7378425.923018076</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>10.25</v>
+      </c>
       <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr"/>
+      <c r="K1145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -38203,7 +38221,7 @@
         <v>-7272898.998918076</v>
       </c>
       <c r="H1146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1146" t="n">
         <v>10.25</v>
@@ -38211,7 +38229,7 @@
       <c r="J1146" t="inlineStr"/>
       <c r="K1146" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1146" t="n">
@@ -38242,7 +38260,7 @@
         <v>-7272898.998918076</v>
       </c>
       <c r="H1147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1147" t="n">
         <v>10.28</v>
@@ -38281,7 +38299,7 @@
         <v>-7272898.998918076</v>
       </c>
       <c r="H1148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1148" t="n">
         <v>10.28</v>
@@ -38320,9 +38338,11 @@
         <v>-7303495.531918076</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>10.28</v>
+      </c>
       <c r="J1149" t="inlineStr"/>
       <c r="K1149" t="inlineStr">
         <is>
@@ -38357,9 +38377,11 @@
         <v>-7261335.533618076</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>10.26</v>
+      </c>
       <c r="J1150" t="inlineStr"/>
       <c r="K1150" t="inlineStr">
         <is>
@@ -38394,9 +38416,11 @@
         <v>-7326284.949018076</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>10.29</v>
+      </c>
       <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr">
         <is>
@@ -38431,9 +38455,11 @@
         <v>-7296398.533018076</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>10.26</v>
+      </c>
       <c r="J1152" t="inlineStr"/>
       <c r="K1152" t="inlineStr">
         <is>
@@ -38468,9 +38494,11 @@
         <v>-7289294.052318076</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>10.29</v>
+      </c>
       <c r="J1153" t="inlineStr"/>
       <c r="K1153" t="inlineStr">
         <is>
@@ -39652,11 +39680,9 @@
         <v>-7430227.071226208</v>
       </c>
       <c r="H1185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1185" t="n">
-        <v>10.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr">
         <is>
@@ -39913,11 +39939,9 @@
         <v>-7349695.148287183</v>
       </c>
       <c r="H1192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1192" t="n">
-        <v>10.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr">
         <is>
@@ -39989,11 +40013,9 @@
         <v>-7380837.535087183</v>
       </c>
       <c r="H1194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1194" t="n">
-        <v>10.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
       <c r="K1194" t="inlineStr">
         <is>
@@ -40028,11 +40050,9 @@
         <v>-7368510.245587183</v>
       </c>
       <c r="H1195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1195" t="n">
-        <v>10.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
       <c r="K1195" t="inlineStr">
         <is>
@@ -40067,11 +40087,9 @@
         <v>-7362361.286287183</v>
       </c>
       <c r="H1196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1196" t="n">
-        <v>10.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
       <c r="K1196" t="inlineStr">
         <is>
@@ -40106,11 +40124,9 @@
         <v>-7354375.219387183</v>
       </c>
       <c r="H1197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1197" t="n">
-        <v>10.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
       <c r="K1197" t="inlineStr">
         <is>
@@ -40145,11 +40161,9 @@
         <v>-7375318.513787183</v>
       </c>
       <c r="H1198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1198" t="n">
-        <v>10.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
       <c r="K1198" t="inlineStr">
         <is>
@@ -40184,11 +40198,9 @@
         <v>-7396077.084287183</v>
       </c>
       <c r="H1199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1199" t="n">
-        <v>10.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr">
         <is>
@@ -40223,11 +40235,9 @@
         <v>-7406100.976187184</v>
       </c>
       <c r="H1200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1200" t="n">
-        <v>10.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
       <c r="K1200" t="inlineStr">
         <is>
@@ -40262,11 +40272,9 @@
         <v>-7384608.422987184</v>
       </c>
       <c r="H1201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1201" t="n">
-        <v>10.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
       <c r="K1201" t="inlineStr">
         <is>
@@ -40301,11 +40309,9 @@
         <v>-7329090.341587184</v>
       </c>
       <c r="H1202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1202" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr">
         <is>
@@ -40340,11 +40346,9 @@
         <v>-7405421.048287184</v>
       </c>
       <c r="H1203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1203" t="n">
-        <v>10.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
       <c r="K1203" t="inlineStr">
         <is>
@@ -40379,11 +40383,9 @@
         <v>-7453517.967787184</v>
       </c>
       <c r="H1204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1204" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr">
         <is>
@@ -40418,11 +40420,9 @@
         <v>-7502067.790187184</v>
       </c>
       <c r="H1205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1205" t="n">
-        <v>10.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr">
         <is>
@@ -40457,11 +40457,9 @@
         <v>-7157894.038687184</v>
       </c>
       <c r="H1206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1206" t="n">
-        <v>10.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr">
         <is>
@@ -40829,11 +40827,9 @@
         <v>-7203783.591087185</v>
       </c>
       <c r="H1216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1216" t="n">
-        <v>10.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
       <c r="K1216" t="inlineStr">
         <is>
@@ -40868,11 +40864,9 @@
         <v>-7260754.282687184</v>
       </c>
       <c r="H1217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1217" t="n">
-        <v>10.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
       <c r="K1217" t="inlineStr">
         <is>
@@ -42942,11 +42936,9 @@
         <v>-7640017.457587184</v>
       </c>
       <c r="H1273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1273" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
       <c r="K1273" t="inlineStr">
         <is>
@@ -43662,6 +43654,6 @@
       <c r="M1292" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest SOC.xlsx
+++ b/BackTest/2020-01-23 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-325392.3245111111</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-405462.2472111111</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-405462.2472111111</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-343266.5793111111</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-343266.5793111111</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-343266.5793111111</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-401336.1205111111</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-360588.0094111111</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-367789.7901111111</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-367789.7901111111</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-421898.5147111111</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-404600.3096111111</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-566821.7448111111</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-654591.2754111111</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-654591.2754111111</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-796505.870011111</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-796505.870011111</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-778300.1526111111</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-769601.0350111111</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-769601.0350111111</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-783759.426211111</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1138668.324711111</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1304531.071311111</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1263843.715111111</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1305158.759311111</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1281262.343711111</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1319393.001211111</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1291499.259511111</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1291499.259511111</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1291499.259511111</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1306104.978611111</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1306104.978611111</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1306104.978611111</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1306104.978611111</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1354155.505111111</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1354155.505111111</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1301533.678211111</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1236377.154811111</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1287748.725811111</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1287748.725811111</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1270422.846211111</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1358087.535711111</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1350598.385711111</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1417548.521711111</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1461628.755011111</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1455083.207411111</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1463316.381311111</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1438804.365811111</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1454224.971211111</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1329200.280211111</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1329200.280211111</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1329200.280211111</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1329200.280211111</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1329200.280211111</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1310973.015711111</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1352790.220311111</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-1190626.992711111</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1190626.992711111</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-1190626.992711111</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1203510.363211111</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1210973.459211111</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1210973.459211111</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1204375.508111111</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-1211858.064711111</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1205342.680311111</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-1213152.920811111</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-1219666.159511111</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-1211660.137911111</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1265740.253211111</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-1309925.098211111</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1091491.645811111</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-851200.7502111108</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-790782.7528111108</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-798122.4916111109</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-789254.1145111108</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-800644.4177111108</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-800644.4177111108</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-781422.9066111108</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-781422.9066111108</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-774511.2056111108</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-789277.2161111108</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-789277.2161111108</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-795970.0883111107</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-943321.5285111107</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-943321.5285111107</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-943321.5285111107</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-932705.1483111107</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-923702.7263111107</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-930172.8758111107</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-936815.2659111107</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-944408.3250111106</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-930485.9907111106</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-995801.5647111107</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-911979.1777111107</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-982600.4119111106</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-897652.1800111106</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-971162.1752111106</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-965280.9850111107</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-971583.6268111106</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-963608.9984111106</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-963608.9984111106</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-980699.2428111106</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1006675.669211111</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-987644.1287111106</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1014312.420411111</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1088970.771011111</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1062238.152511111</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1069156.974711111</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1069156.974711111</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1062050.618311111</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1070048.018111111</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1060686.847011111</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-1066161.877611111</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1059534.263111111</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-1066499.927111111</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-1066499.927111111</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-1059724.292611111</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-1057489.149111111</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-1046341.437211111</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1046341.437211111</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1046341.437211111</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1046341.437211111</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1046341.437211111</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1025792.173311111</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1025792.173311111</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-964241.705911111</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-964241.705911111</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-970278.702211111</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-963539.785611111</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-969741.4486111109</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-962863.8838111109</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-962863.8838111109</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-970314.6519111109</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-970314.6519111109</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-962918.6064111108</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-968724.8396111109</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-953822.4916111109</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-962421.7563111109</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-955070.2845111109</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-962209.9743111109</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-962209.9743111109</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-953365.776711111</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-973771.4092111109</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-990645.0559111109</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-990645.0559111109</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-990645.0559111109</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-990645.0559111109</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-990645.0559111109</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-990645.0559111109</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1046194.896411111</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-1054331.333411111</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-1048547.516511111</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-1048547.516511111</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-1048547.516511111</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-1055503.321511111</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-1062290.385911111</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-1047259.310211111</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-1071229.277911111</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-1045973.054411111</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-1052248.197711111</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-1045052.604711111</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-1039644.071511111</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-1039644.071511111</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-1046157.661211111</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-1046157.661211111</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-1055511.913611111</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1055511.913611111</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1055511.913611111</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-1055511.913611111</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-1055511.913611111</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-1309673.123111111</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-1540692.196111111</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-1448451.170811111</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-1320917.322711111</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-1492429.770511111</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-1430221.691511111</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-1480643.635211111</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-1346681.855211111</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-1193448.439811111</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-1237211.938311111</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-1192808.903311111</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-1208631.179011111</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-1095291.901311111</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-1170773.729711111</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-1158165.780211111</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-1217339.395511111</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-154677.101981448</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-129660.510381448</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-188644.827581448</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-154468.282781448</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-199750.548481448</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-199750.548481448</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-169798.953181448</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-210179.871781448</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-210179.871781448</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-55988.62568144806</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-55988.62568144806</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-55988.62568144806</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-42991.32608144806</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-218745.501681448</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-218745.501681448</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-185559.836081448</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-134921.037481448</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-260828.0513814481</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-171427.713981448</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-171427.713981448</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-565089.311681448</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>166286.986818552</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>166286.986818552</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>67991.22521855199</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>148604.979818552</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>78943.38201855197</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>124222.525918552</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>361273.8297185519</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>405482.5119185519</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>366655.5768185519</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>424140.0796185519</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>400610.755118552</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>411953.010418552</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>402487.4216185519</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>347929.3418185519</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>314083.6358185519</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>323022.7623185519</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>684489.8300540942</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>664546.2921540942</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>678162.5232540942</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>605516.2844540941</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>764355.9148540942</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>668946.4274540942</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>639350.6443540942</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>232481.5561540942</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>232481.5561540942</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>198298.2668540942</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>249670.1984540942</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>260081.0459540942</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>140369.3708540942</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>162280.0339540942</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>131331.6527540942</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>20554.47675409421</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>102280.5910540942</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>48036.53485409421</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>153726.7526540942</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>133495.4090777773</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>255171.2524777773</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>200193.5081777773</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>92494.83627777731</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>29893.14337777731</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>29893.14337777731</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>41777.33547777731</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>41777.33547777731</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>34834.68537777731</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>47733.46677777731</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>24733.21087777731</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>103999.1896777773</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>205489.4533777773</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>121275.2545777773</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>53434.82817777731</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-87900.81952222269</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-262821.0290222227</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-208431.0795222227</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-402775.5500222227</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-368659.9642222227</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>104825.3254466503</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-71634.12765334973</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-45385.42665334973</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-79095.87095334973</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-31435.18545334973</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-56652.44915334973</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-56652.44915334973</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-14961.41845334973</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-84339.43925334973</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-174174.0485533497</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-265741.8966533497</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-212680.0847533497</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-193362.2314533498</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-256110.9945533497</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-394695.9422533497</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-385773.7131533497</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-362340.0909533497</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-372602.9647533497</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-365868.1871533497</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-428738.2179533498</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-383527.4283533497</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-258581.6174533498</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-291034.9757533498</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-330389.3252533498</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-286051.0103533498</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-287736.9256533498</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-304428.3043533498</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-304428.3043533498</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-181165.3389533498</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-181165.3389533498</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-75561.9817533498</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>2296.011246650203</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-114699.2626533498</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-43721.63785334979</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-135135.2517533498</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-58264.83065334978</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>14286.95884665022</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-51066.72435334978</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-173066.2853533498</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-140050.9462533498</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-184782.4090533498</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-208457.5035533498</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-233762.9354533498</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-112907.4738533498</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>13762.73894665021</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-38363.78135334979</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-9737.772253349791</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-43238.08075334979</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-34688.10325334979</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-3754.789053349785</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-26328.37325334979</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-35190.72615334979</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>37071.28964665021</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>1733.353346650205</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-278507.7547533498</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-224463.5784533498</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-44476.94495334983</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-139401.2924533498</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-193224.1095533498</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-311372.6616533499</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-294407.0237533499</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-283096.3214533499</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-305813.6681533499</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-340155.4064533499</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-369324.9731533499</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-349741.2044533499</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-296982.2683533499</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-264777.4353533499</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-233409.9070533499</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-267693.9079533499</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-256694.8540533499</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-269643.1927533499</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-485755.7701533499</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-485705.7701533499</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-1476072.20895335</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-1452329.73415335</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-1733028.14495335</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-1857463.95525335</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-1857463.95525335</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-1857463.95525335</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-1811574.23725335</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-1880750.82625335</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-1834978.67385335</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-1807373.52405335</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-2209789.360553349</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-2067237.217453349</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-1867729.138053349</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-1867729.138053349</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-1867729.138053349</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-1867729.138053349</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-1961900.100953349</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-1908071.383753349</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-2434309.817653349</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-2320740.524853349</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-2334848.471153349</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-2334848.471153349</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-2738211.717053349</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-2709199.035853349</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-2765202.037953349</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-2757670.837853349</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-2757670.837853349</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-2834078.504253349</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-2834078.504253349</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-2806562.000553349</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-2830542.203553349</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-2797138.273353349</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-2955031.73485335</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-2955031.73485335</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-3005347.38085335</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-2996469.81635335</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-2987002.01195335</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-3033172.98655335</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-3033172.98655335</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-3033172.98655335</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-3561470.02115335</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-3651513.809953351</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-3651513.809953351</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-3641290.914053351</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-3385092.048053351</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-3385092.048053351</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-3210092.339953351</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-3148249.099153351</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>-2321407.500640716</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>-2270705.233840716</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>-2688544.187140716</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26059,7 @@
         <v>-2671252.559040716</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>-2671252.559040716</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26125,7 +26125,7 @@
         <v>-2544650.009528081</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
         <v>-2544650.009528081</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>-3331384.079428081</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>-3658448.291128081</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>-3744558.775728081</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>-3669568.668528081</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>-3669568.668528081</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>-3627423.761028081</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>-3680924.35792808</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>-3658090.433728081</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>-3589330.785128081</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>-3603010.557728081</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>-3603010.557728081</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>-3603010.557728081</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>-3603010.557728081</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>-3652334.61102808</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>-3652334.61102808</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>-3652334.61102808</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>-3513601.01892808</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>-3473621.145255742</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>-2561324.722735722</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>-2561324.722735722</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>-2561324.722735722</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>-2561324.722735722</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28435,7 +28435,7 @@
         <v>-2561324.722735722</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>-2561324.722735722</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>-2561324.722735722</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>-2790479.309735722</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28633,7 +28633,7 @@
         <v>-2790479.309735722</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28666,7 +28666,7 @@
         <v>-2790479.309735722</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28699,7 +28699,7 @@
         <v>-2790479.309735722</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28732,7 +28732,7 @@
         <v>-2763455.999835722</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28765,7 +28765,7 @@
         <v>-2763455.999835722</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28798,7 +28798,7 @@
         <v>-2738334.484135722</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -28831,7 +28831,7 @@
         <v>-2750891.151435722</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28864,7 +28864,7 @@
         <v>-2744145.607335722</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -28897,7 +28897,7 @@
         <v>-2744145.607335722</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -28930,7 +28930,7 @@
         <v>-2744145.607335722</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -28963,7 +28963,7 @@
         <v>-2744145.607335722</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -28996,7 +28996,7 @@
         <v>-2614408.080735722</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29029,7 +29029,7 @@
         <v>-2614408.080735722</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29062,7 +29062,7 @@
         <v>-2614408.080735722</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29095,7 +29095,7 @@
         <v>-2614408.080735722</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29128,7 +29128,7 @@
         <v>-2705398.769035722</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29161,7 +29161,7 @@
         <v>-2625662.126535722</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29194,7 +29194,7 @@
         <v>-2498593.605916881</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29227,7 +29227,7 @@
         <v>-2498593.605916881</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29260,7 +29260,7 @@
         <v>-2498593.605916881</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29293,7 +29293,7 @@
         <v>-2539231.137316881</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29326,7 +29326,7 @@
         <v>-2503830.671316881</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29359,7 +29359,7 @@
         <v>-2609124.588316881</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29392,7 +29392,7 @@
         <v>-2609124.588316881</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29425,7 +29425,7 @@
         <v>-2131532.934816881</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -29458,7 +29458,7 @@
         <v>-2597406.028516881</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29491,7 +29491,7 @@
         <v>-2034145.122616881</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29524,7 +29524,7 @@
         <v>-2034145.122616881</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29557,7 +29557,7 @@
         <v>-2034145.122616881</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29590,7 +29590,7 @@
         <v>-2471768.308916881</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29623,7 +29623,7 @@
         <v>-2237917.289716881</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29656,7 +29656,7 @@
         <v>-1988347.385216881</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -29689,7 +29689,7 @@
         <v>-2062534.616016881</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -29722,7 +29722,7 @@
         <v>-2009278.981216881</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -29755,7 +29755,7 @@
         <v>-2009278.981216881</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -29788,7 +29788,7 @@
         <v>-1903053.046416881</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -29821,7 +29821,7 @@
         <v>-2200778.363816882</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -29854,7 +29854,7 @@
         <v>-2200778.363816882</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -29887,7 +29887,7 @@
         <v>-1924224.075216881</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -29920,7 +29920,7 @@
         <v>-2173261.696816882</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -29953,7 +29953,7 @@
         <v>-2001438.926116882</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -29986,7 +29986,7 @@
         <v>-2063755.910316882</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30019,7 +30019,7 @@
         <v>-2063755.910316882</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30052,7 +30052,7 @@
         <v>-2141341.832016882</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30085,7 +30085,7 @@
         <v>-2141341.832016882</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30118,7 +30118,7 @@
         <v>-2009214.428316882</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30151,7 +30151,7 @@
         <v>-2009214.428316882</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30184,7 +30184,7 @@
         <v>-1970952.374016882</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30217,7 +30217,7 @@
         <v>-1970952.374016882</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>-2683616.440916882</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>-3061700.072716882</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>-3027403.288716882</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>-2891596.275416882</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>-2936151.473616882</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>-2936151.473616882</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>-3011650.146416882</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>-3022556.964416882</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>-2990262.144616881</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>-3060506.093716881</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>-2936323.361116881</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30712,7 +30712,7 @@
         <v>-2922501.288616881</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>-2931005.994016881</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30910,7 +30910,7 @@
         <v>-2767235.385516881</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -30943,7 +30943,7 @@
         <v>-2767235.385516881</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -30976,7 +30976,7 @@
         <v>-2966255.854416881</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31009,7 +31009,7 @@
         <v>-2954497.107716881</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31042,7 +31042,7 @@
         <v>-3046300.178216881</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31075,7 +31075,7 @@
         <v>-2914656.317816881</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31108,7 +31108,7 @@
         <v>-2958975.328616881</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31141,7 +31141,7 @@
         <v>-2984543.567716881</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31174,7 +31174,7 @@
         <v>-2984543.567716881</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>-3048566.17941688</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>-2955996.807316881</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>-2955996.807316881</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>-2910616.437816881</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>-2910616.437816881</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -32626,7 +32626,7 @@
         <v>-4748050.1169406</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -32659,7 +32659,7 @@
         <v>-4806036.6597406</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -32692,7 +32692,7 @@
         <v>-4564931.8718406</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -32725,7 +32725,7 @@
         <v>-4819479.5410406</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -32758,7 +32758,7 @@
         <v>-4783293.6062406</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -32791,7 +32791,7 @@
         <v>-4802651.170240601</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -32824,7 +32824,7 @@
         <v>-4827259.5909406</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -32890,7 +32890,7 @@
         <v>-4911738.2642406</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -32923,7 +32923,7 @@
         <v>-4890353.0855406</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -32956,7 +32956,7 @@
         <v>-5110938.0523406</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -32989,7 +32989,7 @@
         <v>-5110938.0523406</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33055,7 +33055,7 @@
         <v>-5193077.7660406</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33187,7 +33187,7 @@
         <v>-5448373.349240601</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -33220,7 +33220,7 @@
         <v>-5448373.349240601</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -33319,7 +33319,7 @@
         <v>-4819794.139940601</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -33649,7 +33649,7 @@
         <v>-4813871.269640602</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -33682,7 +33682,7 @@
         <v>-4782364.818840602</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -33715,7 +33715,7 @@
         <v>-4697267.816740602</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -33748,7 +33748,7 @@
         <v>-4845697.567840602</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -34243,7 +34243,7 @@
         <v>-4536775.963927963</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -34276,7 +34276,7 @@
         <v>-4536775.963927963</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -34309,7 +34309,7 @@
         <v>-4536775.963927963</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -34342,7 +34342,7 @@
         <v>-4639381.498027963</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -34375,7 +34375,7 @@
         <v>-4685456.564527962</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -34408,7 +34408,7 @@
         <v>-4659848.724527963</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -34441,7 +34441,7 @@
         <v>-4659848.724527963</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -34474,7 +34474,7 @@
         <v>-4717911.057627963</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -34507,7 +34507,7 @@
         <v>-4908336.596427963</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -34540,7 +34540,7 @@
         <v>-4908336.596427963</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -34573,7 +34573,7 @@
         <v>-4908336.596427963</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -34606,7 +34606,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -34639,7 +34639,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -34672,7 +34672,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -34705,7 +34705,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -34738,7 +34738,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -34771,7 +34771,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -34804,7 +34804,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -34837,7 +34837,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -34870,7 +34870,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -36454,7 +36454,7 @@
         <v>-5338883.822341172</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -36487,7 +36487,7 @@
         <v>-5338883.822341172</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -36520,7 +36520,7 @@
         <v>-5363327.310329457</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -36553,7 +36553,7 @@
         <v>-5363327.310329457</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -36586,7 +36586,7 @@
         <v>-5363327.310329457</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -36619,7 +36619,7 @@
         <v>-5388836.821229457</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -36652,7 +36652,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -36685,7 +36685,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -36718,7 +36718,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -36751,7 +36751,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -36784,7 +36784,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -36850,7 +36850,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -36883,7 +36883,7 @@
         <v>-5475711.484529456</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -36916,7 +36916,7 @@
         <v>-5776578.496720382</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -36949,7 +36949,7 @@
         <v>-5892722.505420382</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -36982,7 +36982,7 @@
         <v>-5806232.524720382</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -37114,7 +37114,7 @@
         <v>-5345087.757220382</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -37147,7 +37147,7 @@
         <v>-5369390.629920382</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -37180,7 +37180,7 @@
         <v>-5369390.629920382</v>
       </c>
       <c r="H1115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -37213,7 +37213,7 @@
         <v>-5379895.326620382</v>
       </c>
       <c r="H1116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -37246,7 +37246,7 @@
         <v>-5303864.364920382</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -37279,7 +37279,7 @@
         <v>-5228033.583320382</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -37312,7 +37312,7 @@
         <v>-5228033.583320382</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -37345,7 +37345,7 @@
         <v>-5228033.583320382</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -37378,7 +37378,7 @@
         <v>-5238136.348320382</v>
       </c>
       <c r="H1121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -37411,7 +37411,7 @@
         <v>-5231244.843220382</v>
       </c>
       <c r="H1122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -37444,7 +37444,7 @@
         <v>-5247048.256620382</v>
       </c>
       <c r="H1123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -37477,7 +37477,7 @@
         <v>-5277861.181520382</v>
       </c>
       <c r="H1124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -37510,7 +37510,7 @@
         <v>-5217639.448820382</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -37543,7 +37543,7 @@
         <v>-5236840.385020383</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -37576,7 +37576,7 @@
         <v>-5199025.015820383</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -37609,7 +37609,7 @@
         <v>-5208000.898020383</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -37642,7 +37642,7 @@
         <v>-5309774.741082039</v>
       </c>
       <c r="H1129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -37675,7 +37675,7 @@
         <v>-5309774.741082039</v>
       </c>
       <c r="H1130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -37873,7 +37873,7 @@
         <v>-7292402.150482039</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -38104,290 +38104,248 @@
         <v>-7285359.207118076</v>
       </c>
       <c r="H1143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1143" t="n">
-        <v>10.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr">
+      <c r="K1143" t="inlineStr"/>
+      <c r="L1143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="1" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>93066.7159</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>-7378425.923018076</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1144" t="inlineStr"/>
+      <c r="J1144" t="inlineStr"/>
+      <c r="K1144" t="inlineStr"/>
+      <c r="L1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="1" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>7720.0005</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>-7378425.923018076</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1145" t="inlineStr"/>
+      <c r="J1145" t="inlineStr"/>
+      <c r="K1145" t="inlineStr"/>
+      <c r="L1145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="1" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>105526.9241</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>-7272898.998918076</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1146" t="inlineStr"/>
+      <c r="J1146" t="inlineStr"/>
+      <c r="K1146" t="inlineStr"/>
+      <c r="L1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="1" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>202224.6623</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>-7272898.998918076</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1147" t="inlineStr"/>
+      <c r="J1147" t="inlineStr"/>
+      <c r="K1147" t="inlineStr"/>
+      <c r="L1147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="1" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>104143.3513</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>-7272898.998918076</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1148" t="inlineStr"/>
+      <c r="J1148" t="inlineStr"/>
+      <c r="K1148" t="inlineStr"/>
+      <c r="L1148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="1" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>30596.533</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>-7303495.531918076</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1149" t="inlineStr"/>
+      <c r="J1149" t="inlineStr"/>
+      <c r="K1149" t="inlineStr"/>
+      <c r="L1149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="1" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>42159.9983</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>-7261335.533618076</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="J1150" t="inlineStr"/>
+      <c r="K1150" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1143" t="inlineStr"/>
-    </row>
-    <row r="1144">
-      <c r="A1144" s="1" t="n">
-        <v>1142</v>
-      </c>
-      <c r="B1144" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="C1144" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="D1144" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="E1144" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="F1144" t="n">
-        <v>93066.7159</v>
-      </c>
-      <c r="G1144" t="n">
-        <v>-7378425.923018076</v>
-      </c>
-      <c r="H1144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1144" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1144" t="inlineStr"/>
-    </row>
-    <row r="1145">
-      <c r="A1145" s="1" t="n">
-        <v>1143</v>
-      </c>
-      <c r="B1145" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="C1145" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="D1145" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="E1145" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="F1145" t="n">
-        <v>7720.0005</v>
-      </c>
-      <c r="G1145" t="n">
-        <v>-7378425.923018076</v>
-      </c>
-      <c r="H1145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1145" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1145" t="inlineStr"/>
-    </row>
-    <row r="1146">
-      <c r="A1146" s="1" t="n">
-        <v>1144</v>
-      </c>
-      <c r="B1146" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="C1146" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="D1146" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="E1146" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="F1146" t="n">
-        <v>105526.9241</v>
-      </c>
-      <c r="G1146" t="n">
-        <v>-7272898.998918076</v>
-      </c>
-      <c r="H1146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1146" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1146" t="inlineStr"/>
-    </row>
-    <row r="1147">
-      <c r="A1147" s="1" t="n">
-        <v>1145</v>
-      </c>
-      <c r="B1147" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="C1147" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="D1147" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="E1147" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="F1147" t="n">
-        <v>202224.6623</v>
-      </c>
-      <c r="G1147" t="n">
-        <v>-7272898.998918076</v>
-      </c>
-      <c r="H1147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1147" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1147" t="inlineStr"/>
-    </row>
-    <row r="1148">
-      <c r="A1148" s="1" t="n">
-        <v>1146</v>
-      </c>
-      <c r="B1148" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="C1148" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="D1148" t="n">
-        <v>10.32</v>
-      </c>
-      <c r="E1148" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="F1148" t="n">
-        <v>104143.3513</v>
-      </c>
-      <c r="G1148" t="n">
-        <v>-7272898.998918076</v>
-      </c>
-      <c r="H1148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1148" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1148" t="inlineStr"/>
-    </row>
-    <row r="1149">
-      <c r="A1149" s="1" t="n">
-        <v>1147</v>
-      </c>
-      <c r="B1149" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="C1149" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="D1149" t="n">
-        <v>10.32</v>
-      </c>
-      <c r="E1149" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="F1149" t="n">
-        <v>30596.533</v>
-      </c>
-      <c r="G1149" t="n">
-        <v>-7303495.531918076</v>
-      </c>
-      <c r="H1149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1149" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1149" t="inlineStr"/>
-    </row>
-    <row r="1150">
-      <c r="A1150" s="1" t="n">
-        <v>1148</v>
-      </c>
-      <c r="B1150" t="n">
-        <v>10.32</v>
-      </c>
-      <c r="C1150" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="D1150" t="n">
-        <v>10.32</v>
-      </c>
-      <c r="E1150" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="F1150" t="n">
-        <v>42159.9983</v>
-      </c>
-      <c r="G1150" t="n">
-        <v>-7261335.533618076</v>
-      </c>
-      <c r="H1150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1150" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -38416,11 +38374,9 @@
         <v>-7326284.949018076</v>
       </c>
       <c r="H1151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1151" t="n">
-        <v>10.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr">
         <is>
@@ -38533,9 +38489,11 @@
         <v>-7315765.028918075</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>10.3</v>
+      </c>
       <c r="J1154" t="inlineStr"/>
       <c r="K1154" t="inlineStr">
         <is>
@@ -38607,9 +38565,11 @@
         <v>-7356616.972318076</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>10.29</v>
+      </c>
       <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr">
         <is>
@@ -39051,9 +39011,11 @@
         <v>-7587087.004418076</v>
       </c>
       <c r="H1168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>10.3</v>
+      </c>
       <c r="J1168" t="inlineStr"/>
       <c r="K1168" t="inlineStr">
         <is>
@@ -39199,9 +39161,11 @@
         <v>-7445063.267118077</v>
       </c>
       <c r="H1172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>10.32</v>
+      </c>
       <c r="J1172" t="inlineStr"/>
       <c r="K1172" t="inlineStr">
         <is>
@@ -39273,9 +39237,11 @@
         <v>-7442514.582126209</v>
       </c>
       <c r="H1174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>10.28</v>
+      </c>
       <c r="J1174" t="inlineStr"/>
       <c r="K1174" t="inlineStr">
         <is>
@@ -39347,9 +39313,11 @@
         <v>-7454738.254826209</v>
       </c>
       <c r="H1176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>10.28</v>
+      </c>
       <c r="J1176" t="inlineStr"/>
       <c r="K1176" t="inlineStr">
         <is>
@@ -39384,9 +39352,11 @@
         <v>-7432047.636126208</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>10.28</v>
+      </c>
       <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr">
         <is>
@@ -39421,9 +39391,11 @@
         <v>-7432047.636126208</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>10.29</v>
+      </c>
       <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr">
         <is>
@@ -39495,9 +39467,11 @@
         <v>-7432047.636126208</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>10.29</v>
+      </c>
       <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr">
         <is>
@@ -39569,9 +39543,11 @@
         <v>-7460359.590426208</v>
       </c>
       <c r="H1182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>10.28</v>
+      </c>
       <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr">
         <is>
@@ -39606,9 +39582,11 @@
         <v>-7315676.121326208</v>
       </c>
       <c r="H1183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>10.28</v>
+      </c>
       <c r="J1183" t="inlineStr"/>
       <c r="K1183" t="inlineStr">
         <is>
@@ -39643,9 +39621,11 @@
         <v>-7315676.121326208</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>10.29</v>
+      </c>
       <c r="J1184" t="inlineStr"/>
       <c r="K1184" t="inlineStr">
         <is>
@@ -39680,9 +39660,11 @@
         <v>-7430227.071226208</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>10.29</v>
+      </c>
       <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr">
         <is>
@@ -39717,9 +39699,11 @@
         <v>-7603019.455287184</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>10.28</v>
+      </c>
       <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr">
         <is>
@@ -39754,9 +39738,11 @@
         <v>-7376398.927887184</v>
       </c>
       <c r="H1187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>10.25</v>
+      </c>
       <c r="J1187" t="inlineStr"/>
       <c r="K1187" t="inlineStr">
         <is>
@@ -39791,9 +39777,11 @@
         <v>-7366695.180787183</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>10.34</v>
+      </c>
       <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr">
         <is>
@@ -39828,9 +39816,11 @@
         <v>-7357053.653987183</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>10.39</v>
+      </c>
       <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr">
         <is>
@@ -39865,9 +39855,11 @@
         <v>-7365391.168387183</v>
       </c>
       <c r="H1190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>10.56</v>
+      </c>
       <c r="J1190" t="inlineStr"/>
       <c r="K1190" t="inlineStr">
         <is>
@@ -39902,9 +39894,11 @@
         <v>-7357974.079087183</v>
       </c>
       <c r="H1191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>10.45</v>
+      </c>
       <c r="J1191" t="inlineStr"/>
       <c r="K1191" t="inlineStr">
         <is>
@@ -39939,18 +39933,16 @@
         <v>-7349695.148287183</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1192" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1192" t="inlineStr"/>
       <c r="M1192" t="inlineStr"/>
     </row>
     <row r="1193">
@@ -39976,15 +39968,11 @@
         <v>-7360636.605487183</v>
       </c>
       <c r="H1193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1193" t="inlineStr"/>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -40013,15 +40001,11 @@
         <v>-7380837.535087183</v>
       </c>
       <c r="H1194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1194" t="inlineStr"/>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -40050,15 +40034,11 @@
         <v>-7368510.245587183</v>
       </c>
       <c r="H1195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1195" t="inlineStr"/>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -40087,15 +40067,11 @@
         <v>-7362361.286287183</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1196" t="inlineStr"/>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -40124,15 +40100,11 @@
         <v>-7354375.219387183</v>
       </c>
       <c r="H1197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1197" t="inlineStr"/>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -40161,15 +40133,11 @@
         <v>-7375318.513787183</v>
       </c>
       <c r="H1198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1198" t="inlineStr"/>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -40198,15 +40166,11 @@
         <v>-7396077.084287183</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1199" t="inlineStr"/>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -40235,15 +40199,11 @@
         <v>-7406100.976187184</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1200" t="inlineStr"/>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -40272,15 +40232,11 @@
         <v>-7384608.422987184</v>
       </c>
       <c r="H1201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1201" t="inlineStr"/>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -40309,15 +40265,11 @@
         <v>-7329090.341587184</v>
       </c>
       <c r="H1202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1202" t="inlineStr"/>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -40346,15 +40298,11 @@
         <v>-7405421.048287184</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1203" t="inlineStr"/>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -40383,15 +40331,11 @@
         <v>-7453517.967787184</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1204" t="inlineStr"/>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -40424,11 +40368,7 @@
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1205" t="inlineStr"/>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -40461,11 +40401,7 @@
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1206" t="inlineStr"/>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -40498,11 +40434,7 @@
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1207" t="inlineStr"/>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -40535,11 +40467,7 @@
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1208" t="inlineStr"/>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -40572,11 +40500,7 @@
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1209" t="inlineStr"/>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -40605,15 +40529,11 @@
         <v>-7108132.620987184</v>
       </c>
       <c r="H1210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1210" t="inlineStr"/>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -40642,15 +40562,11 @@
         <v>-7125252.045887184</v>
       </c>
       <c r="H1211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1211" t="inlineStr"/>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -40679,15 +40595,11 @@
         <v>-7138204.854087184</v>
       </c>
       <c r="H1212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1212" t="inlineStr"/>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -40716,15 +40628,11 @@
         <v>-7172776.338487185</v>
       </c>
       <c r="H1213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1213" t="inlineStr"/>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -40753,15 +40661,11 @@
         <v>-7156807.265387185</v>
       </c>
       <c r="H1214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1214" t="inlineStr"/>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -40790,15 +40694,11 @@
         <v>-7156807.265387185</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1215" t="inlineStr"/>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -40827,15 +40727,11 @@
         <v>-7203783.591087185</v>
       </c>
       <c r="H1216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1216" t="inlineStr"/>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -40864,15 +40760,11 @@
         <v>-7260754.282687184</v>
       </c>
       <c r="H1217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1217" t="inlineStr"/>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -40901,15 +40793,11 @@
         <v>-7216743.061487185</v>
       </c>
       <c r="H1218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1218" t="inlineStr"/>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -40938,15 +40826,11 @@
         <v>-7362918.058787185</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1219" t="inlineStr"/>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -40975,15 +40859,11 @@
         <v>-7508467.715787184</v>
       </c>
       <c r="H1220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1220" t="inlineStr"/>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -41012,15 +40892,15 @@
         <v>-7433021.673087184</v>
       </c>
       <c r="H1221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="K1221" t="inlineStr"/>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -41049,13 +40929,15 @@
         <v>-7459049.690087184</v>
       </c>
       <c r="H1222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="inlineStr"/>
+      <c r="J1222" t="n">
+        <v>10.3</v>
+      </c>
       <c r="K1222" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L1222" t="n">
@@ -41086,13 +40968,15 @@
         <v>-7472283.429187184</v>
       </c>
       <c r="H1223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="inlineStr"/>
+      <c r="J1223" t="n">
+        <v>10.3</v>
+      </c>
       <c r="K1223" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L1223" t="n">
@@ -41123,15 +41007,11 @@
         <v>-7444907.631787185</v>
       </c>
       <c r="H1224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1224" t="inlineStr"/>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -41160,15 +41040,11 @@
         <v>-7471584.586087185</v>
       </c>
       <c r="H1225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1225" t="inlineStr"/>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -41197,15 +41073,11 @@
         <v>-7459953.433187185</v>
       </c>
       <c r="H1226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1226" t="inlineStr"/>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -41234,15 +41106,11 @@
         <v>-7484408.514887185</v>
       </c>
       <c r="H1227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1227" t="inlineStr"/>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -41271,15 +41139,11 @@
         <v>-7522114.293787185</v>
       </c>
       <c r="H1228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1228" t="inlineStr"/>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -41308,13 +41172,15 @@
         <v>-7522114.293787185</v>
       </c>
       <c r="H1229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>10.36</v>
+      </c>
       <c r="J1229" t="inlineStr"/>
       <c r="K1229" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1229" t="n">
@@ -41345,9 +41211,11 @@
         <v>-7507377.040287185</v>
       </c>
       <c r="H1230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>10.36</v>
+      </c>
       <c r="J1230" t="inlineStr"/>
       <c r="K1230" t="inlineStr">
         <is>
@@ -41382,9 +41250,11 @@
         <v>-7514218.946087185</v>
       </c>
       <c r="H1231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>10.43</v>
+      </c>
       <c r="J1231" t="inlineStr"/>
       <c r="K1231" t="inlineStr">
         <is>
@@ -41419,9 +41289,11 @@
         <v>-7437634.202187185</v>
       </c>
       <c r="H1232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>10.41</v>
+      </c>
       <c r="J1232" t="inlineStr"/>
       <c r="K1232" t="inlineStr">
         <is>
@@ -41456,7 +41328,7 @@
         <v>-7217570.214387185</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
@@ -41493,7 +41365,7 @@
         <v>-7239058.324387185</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
@@ -41530,7 +41402,7 @@
         <v>-7141801.050387185</v>
       </c>
       <c r="H1235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
@@ -41567,7 +41439,7 @@
         <v>-7271182.222687185</v>
       </c>
       <c r="H1236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
@@ -41752,9 +41624,11 @@
         <v>-7470810.470087186</v>
       </c>
       <c r="H1241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>10.46</v>
+      </c>
       <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr">
         <is>
@@ -41789,9 +41663,11 @@
         <v>-7470810.470087186</v>
       </c>
       <c r="H1242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>10.47</v>
+      </c>
       <c r="J1242" t="inlineStr"/>
       <c r="K1242" t="inlineStr">
         <is>
@@ -41826,9 +41702,11 @@
         <v>-7513952.870887185</v>
       </c>
       <c r="H1243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>10.47</v>
+      </c>
       <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr">
         <is>
@@ -41863,9 +41741,11 @@
         <v>-7447086.178087185</v>
       </c>
       <c r="H1244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>10.46</v>
+      </c>
       <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr">
         <is>
@@ -41900,9 +41780,11 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>10.47</v>
+      </c>
       <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
@@ -42011,9 +41893,11 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>10.48</v>
+      </c>
       <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
@@ -42048,9 +41932,11 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>10.48</v>
+      </c>
       <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
@@ -42085,9 +41971,11 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>10.48</v>
+      </c>
       <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr">
         <is>
@@ -42122,9 +42010,11 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>10.48</v>
+      </c>
       <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr">
         <is>
@@ -42159,9 +42049,11 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>10.48</v>
+      </c>
       <c r="J1252" t="inlineStr"/>
       <c r="K1252" t="inlineStr">
         <is>
@@ -42196,9 +42088,11 @@
         <v>-7268262.011687185</v>
       </c>
       <c r="H1253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>10.48</v>
+      </c>
       <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr">
         <is>
@@ -42418,18 +42312,16 @@
         <v>-7393822.355587184</v>
       </c>
       <c r="H1259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
       <c r="K1259" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1259" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1259" t="inlineStr"/>
       <c r="M1259" t="inlineStr"/>
     </row>
     <row r="1260">
@@ -42459,11 +42351,7 @@
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1260" t="inlineStr"/>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -42492,15 +42380,11 @@
         <v>-7416703.362187184</v>
       </c>
       <c r="H1261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1261" t="inlineStr"/>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -42529,15 +42413,11 @@
         <v>-7468024.869587185</v>
       </c>
       <c r="H1262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1262" t="inlineStr"/>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -42566,15 +42446,11 @@
         <v>-7733537.820487184</v>
       </c>
       <c r="H1263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1263" t="inlineStr"/>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -42603,15 +42479,11 @@
         <v>-7733537.820487184</v>
       </c>
       <c r="H1264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1264" t="inlineStr"/>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -42640,15 +42512,11 @@
         <v>-7695960.955287185</v>
       </c>
       <c r="H1265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1265" t="inlineStr"/>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -42677,15 +42545,11 @@
         <v>-7615790.151887185</v>
       </c>
       <c r="H1266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1266" t="inlineStr"/>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -42714,15 +42578,11 @@
         <v>-7539711.674587185</v>
       </c>
       <c r="H1267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1267" t="inlineStr"/>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -42751,15 +42611,11 @@
         <v>-7556540.759087184</v>
       </c>
       <c r="H1268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
-      <c r="K1268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1268" t="inlineStr"/>
       <c r="L1268" t="n">
         <v>1</v>
       </c>
@@ -42788,15 +42644,11 @@
         <v>-7525319.193687185</v>
       </c>
       <c r="H1269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
-      <c r="K1269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1269" t="inlineStr"/>
       <c r="L1269" t="n">
         <v>1</v>
       </c>
@@ -42825,15 +42677,11 @@
         <v>-7473770.663187184</v>
       </c>
       <c r="H1270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
-      <c r="K1270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1270" t="inlineStr"/>
       <c r="L1270" t="n">
         <v>1</v>
       </c>
@@ -42862,15 +42710,11 @@
         <v>-7593900.042587184</v>
       </c>
       <c r="H1271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
-      <c r="K1271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1271" t="inlineStr"/>
       <c r="L1271" t="n">
         <v>1</v>
       </c>
@@ -42899,15 +42743,11 @@
         <v>-7607807.301187185</v>
       </c>
       <c r="H1272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
-      <c r="K1272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1272" t="inlineStr"/>
       <c r="L1272" t="n">
         <v>1</v>
       </c>
@@ -42936,15 +42776,11 @@
         <v>-7640017.457587184</v>
       </c>
       <c r="H1273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
-      <c r="K1273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1273" t="inlineStr"/>
       <c r="L1273" t="n">
         <v>1</v>
       </c>
@@ -42973,13 +42809,15 @@
         <v>-7616185.141287184</v>
       </c>
       <c r="H1274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>10.49</v>
+      </c>
       <c r="J1274" t="inlineStr"/>
       <c r="K1274" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1274" t="n">
@@ -43010,9 +42848,11 @@
         <v>-7596873.786287184</v>
       </c>
       <c r="H1275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>10.52</v>
+      </c>
       <c r="J1275" t="inlineStr"/>
       <c r="K1275" t="inlineStr">
         <is>
@@ -43047,9 +42887,11 @@
         <v>-7596873.786287184</v>
       </c>
       <c r="H1276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>10.55</v>
+      </c>
       <c r="J1276" t="inlineStr"/>
       <c r="K1276" t="inlineStr">
         <is>
@@ -43084,9 +42926,11 @@
         <v>-7637782.494487184</v>
       </c>
       <c r="H1277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>10.55</v>
+      </c>
       <c r="J1277" t="inlineStr"/>
       <c r="K1277" t="inlineStr">
         <is>
@@ -43121,9 +42965,11 @@
         <v>-7610324.265187184</v>
       </c>
       <c r="H1278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>10.51</v>
+      </c>
       <c r="J1278" t="inlineStr"/>
       <c r="K1278" t="inlineStr">
         <is>
@@ -43158,9 +43004,11 @@
         <v>-7623174.680787184</v>
       </c>
       <c r="H1279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>10.53</v>
+      </c>
       <c r="J1279" t="inlineStr"/>
       <c r="K1279" t="inlineStr">
         <is>
@@ -43195,9 +43043,11 @@
         <v>-7616005.803587184</v>
       </c>
       <c r="H1280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>10.5</v>
+      </c>
       <c r="J1280" t="inlineStr"/>
       <c r="K1280" t="inlineStr">
         <is>
@@ -43232,9 +43082,11 @@
         <v>-7629072.449887184</v>
       </c>
       <c r="H1281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>10.55</v>
+      </c>
       <c r="J1281" t="inlineStr"/>
       <c r="K1281" t="inlineStr">
         <is>
@@ -43269,9 +43121,11 @@
         <v>-7621262.582687184</v>
       </c>
       <c r="H1282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>10.52</v>
+      </c>
       <c r="J1282" t="inlineStr"/>
       <c r="K1282" t="inlineStr">
         <is>
@@ -43306,9 +43160,11 @@
         <v>-7605858.279487184</v>
       </c>
       <c r="H1283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>10.53</v>
+      </c>
       <c r="J1283" t="inlineStr"/>
       <c r="K1283" t="inlineStr">
         <is>
@@ -43343,9 +43199,11 @@
         <v>-7640361.196387184</v>
       </c>
       <c r="H1284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>10.56</v>
+      </c>
       <c r="J1284" t="inlineStr"/>
       <c r="K1284" t="inlineStr">
         <is>
@@ -43380,9 +43238,11 @@
         <v>-7602115.348887184</v>
       </c>
       <c r="H1285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>10.52</v>
+      </c>
       <c r="J1285" t="inlineStr"/>
       <c r="K1285" t="inlineStr">
         <is>
@@ -43417,9 +43277,11 @@
         <v>-7635203.894187184</v>
       </c>
       <c r="H1286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>10.54</v>
+      </c>
       <c r="J1286" t="inlineStr"/>
       <c r="K1286" t="inlineStr">
         <is>
@@ -43454,9 +43316,11 @@
         <v>-7684615.758787184</v>
       </c>
       <c r="H1287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>10.51</v>
+      </c>
       <c r="J1287" t="inlineStr"/>
       <c r="K1287" t="inlineStr">
         <is>
@@ -43491,9 +43355,11 @@
         <v>-7538573.892787184</v>
       </c>
       <c r="H1288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>10.47</v>
+      </c>
       <c r="J1288" t="inlineStr"/>
       <c r="K1288" t="inlineStr">
         <is>
@@ -43528,9 +43394,11 @@
         <v>-7510858.688887184</v>
       </c>
       <c r="H1289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>10.52</v>
+      </c>
       <c r="J1289" t="inlineStr"/>
       <c r="K1289" t="inlineStr">
         <is>
@@ -43565,9 +43433,11 @@
         <v>-7559086.095687184</v>
       </c>
       <c r="H1290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>10.54</v>
+      </c>
       <c r="J1290" t="inlineStr"/>
       <c r="K1290" t="inlineStr">
         <is>
@@ -43602,9 +43472,11 @@
         <v>-7508735.946287183</v>
       </c>
       <c r="H1291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>10.5</v>
+      </c>
       <c r="J1291" t="inlineStr"/>
       <c r="K1291" t="inlineStr">
         <is>
@@ -43639,9 +43511,11 @@
         <v>-7522311.086387184</v>
       </c>
       <c r="H1292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>10.52</v>
+      </c>
       <c r="J1292" t="inlineStr"/>
       <c r="K1292" t="inlineStr">
         <is>
@@ -43654,6 +43528,6 @@
       <c r="M1292" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest SOC.xlsx
+++ b/BackTest/2020-01-23 BackTest SOC.xlsx
@@ -451,7 +451,7 @@
         <v>-325392.3245111111</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-995916.7985111109</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-964241.705911111</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-964241.705911111</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-970278.702211111</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-963539.785611111</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-969741.4486111109</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-962863.8838111109</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-962863.8838111109</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-970314.6519111109</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-970314.6519111109</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-962918.6064111108</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-968724.8396111109</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-953822.4916111109</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-962421.7563111109</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-955070.2845111109</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-962209.9743111109</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-962209.9743111109</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-953365.776711111</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-973771.4092111109</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-990645.0559111109</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-154677.101981448</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-129660.510381448</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-188644.827581448</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-154468.282781448</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-199750.548481448</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-199750.548481448</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-169798.953181448</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-210179.871781448</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-210179.871781448</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-55988.62568144806</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-55988.62568144806</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-55988.62568144806</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-42991.32608144806</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-218745.501681448</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-218745.501681448</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-185559.836081448</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-134921.037481448</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-260828.0513814481</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-171427.713981448</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-171427.713981448</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-565089.311681448</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>166286.986818552</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>166286.986818552</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>67991.22521855199</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>148604.979818552</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>78943.38201855197</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>124222.525918552</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>361273.8297185519</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>405482.5119185519</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>366655.5768185519</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>424140.0796185519</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>400610.755118552</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>411953.010418552</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>402487.4216185519</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>347929.3418185519</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>314083.6358185519</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>323022.7623185519</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>668946.4274540942</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>639350.6443540942</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>232481.5561540942</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>232481.5561540942</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>216428.2193540942</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>151907.3196540942</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>140369.3708540942</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>143136.7875540942</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>114150.5078540942</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>92520.34415409419</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>66780.45795409419</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>186517.8300540942</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>115201.4096540942</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>115201.4096540942</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>162280.0339540942</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>162280.0339540942</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>162280.0339540942</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>162280.0339540942</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>162280.0339540942</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>99042.75665409422</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>107936.7436540942</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>99198.79185409422</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>131331.6527540942</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>20554.47675409421</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>102280.5910540942</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>48036.53485409421</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>62188.55935409421</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>153726.7526540942</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>153726.7526540942</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>83944.46775409422</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-14442.34184590577</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>92279.55925409423</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>450172.6862888884</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>609750.6020777774</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>458786.0726777774</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>345719.0842777774</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>402881.3978777773</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>346735.9125777773</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>474285.7711777773</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>393323.8444777773</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>305923.5737777773</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>247994.6462777773</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>247994.6462777773</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>133495.4090777773</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>255171.2524777773</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>200193.5081777773</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>92494.83627777731</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>29893.14337777731</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>29893.14337777731</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>41777.33547777731</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>41777.33547777731</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>34834.68537777731</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>47733.46677777731</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>24733.21087777731</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>103999.1896777773</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>205489.4533777773</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>205489.4533777773</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>121275.2545777773</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>53434.82817777731</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-87900.81952222269</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-262821.0290222227</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-208431.0795222227</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-402775.5500222227</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-368659.9642222227</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-414296.3454222227</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-448310.5916222227</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-424396.9190222227</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-306481.0752222227</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-187554.5166222227</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-271762.2911222227</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-93347.33292222273</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-237568.8450222227</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>289301.2901777773</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>129540.9461777773</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-12662.13755334972</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-86427.31425334972</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-86427.31425334972</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-103516.0866533497</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-66232.84925334972</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>104825.3254466503</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-71634.12765334973</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-45385.42665334973</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-79095.87095334973</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-31435.18545334973</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-56652.44915334973</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-56652.44915334973</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-14961.41845334973</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-84339.43925334973</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-174174.0485533497</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-265741.8966533497</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-212680.0847533497</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-193362.2314533498</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-256110.9945533497</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-394695.9422533497</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-385773.7131533497</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-362340.0909533497</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-372602.9647533497</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-365868.1871533497</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-428738.2179533498</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-383527.4283533497</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-258581.6174533498</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-291034.9757533498</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-330389.3252533498</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-286051.0103533498</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-256051.7337533498</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-287736.9256533498</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-304428.3043533498</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-304428.3043533498</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-304428.3043533498</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-181165.3389533498</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-181165.3389533498</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-75561.9817533498</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>2296.011246650203</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-114699.2626533498</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-43721.63785334979</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-135135.2517533498</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-58264.83065334978</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>14286.95884665022</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-51066.72435334978</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-173066.2853533498</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-140050.9462533498</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-184782.4090533498</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-208457.5035533498</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-233762.9354533498</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-112907.4738533498</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>13762.73894665021</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-38363.78135334979</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-9737.772253349791</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-43238.08075334979</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-34688.10325334979</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-3754.789053349785</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-26328.37325334979</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-35190.72615334979</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>37071.28964665021</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>1733.353346650205</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-278507.7547533498</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-224463.5784533498</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-44476.94495334983</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-139401.2924533498</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-193224.1095533498</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-311372.6616533499</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-294407.0237533499</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-283096.3214533499</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-305813.6681533499</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-340155.4064533499</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-369324.9731533499</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-349741.2044533499</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-296982.2683533499</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-264777.4353533499</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-233409.9070533499</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-267693.9079533499</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-256694.8540533499</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-269643.1927533499</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-485755.7701533499</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-485705.7701533499</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-1476072.20895335</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-1452329.73415335</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -29821,7 +29821,7 @@
         <v>-2200778.363816882</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -29953,7 +29953,7 @@
         <v>-2001438.926116882</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -29986,7 +29986,7 @@
         <v>-2063755.910316882</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30019,7 +30019,7 @@
         <v>-2063755.910316882</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30052,7 +30052,7 @@
         <v>-2141341.832016882</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30085,7 +30085,7 @@
         <v>-2141341.832016882</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30118,7 +30118,7 @@
         <v>-2009214.428316882</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30151,7 +30151,7 @@
         <v>-2009214.428316882</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30184,7 +30184,7 @@
         <v>-1970952.374016882</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30217,7 +30217,7 @@
         <v>-1970952.374016882</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30250,7 +30250,7 @@
         <v>-2047064.379116882</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>-2683616.440916882</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -32626,7 +32626,7 @@
         <v>-4748050.1169406</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -32659,7 +32659,7 @@
         <v>-4806036.6597406</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -32692,7 +32692,7 @@
         <v>-4564931.8718406</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -32725,7 +32725,7 @@
         <v>-4819479.5410406</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -32758,7 +32758,7 @@
         <v>-4783293.6062406</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -32791,7 +32791,7 @@
         <v>-4802651.170240601</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -32824,7 +32824,7 @@
         <v>-4827259.5909406</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -32890,7 +32890,7 @@
         <v>-4911738.2642406</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -32923,7 +32923,7 @@
         <v>-4890353.0855406</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -32956,7 +32956,7 @@
         <v>-5110938.0523406</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -32989,7 +32989,7 @@
         <v>-5110938.0523406</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33055,7 +33055,7 @@
         <v>-5193077.7660406</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33187,7 +33187,7 @@
         <v>-5448373.349240601</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -33220,7 +33220,7 @@
         <v>-5448373.349240601</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -33319,7 +33319,7 @@
         <v>-4819794.139940601</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -33649,7 +33649,7 @@
         <v>-4813871.269640602</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -33682,7 +33682,7 @@
         <v>-4782364.818840602</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -33715,7 +33715,7 @@
         <v>-4697267.816740602</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -33748,7 +33748,7 @@
         <v>-4845697.567840602</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -34243,7 +34243,7 @@
         <v>-4536775.963927963</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -34276,7 +34276,7 @@
         <v>-4536775.963927963</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -34309,7 +34309,7 @@
         <v>-4536775.963927963</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -34342,7 +34342,7 @@
         <v>-4639381.498027963</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -34375,7 +34375,7 @@
         <v>-4685456.564527962</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -34408,7 +34408,7 @@
         <v>-4659848.724527963</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -34441,7 +34441,7 @@
         <v>-4659848.724527963</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -34474,7 +34474,7 @@
         <v>-4717911.057627963</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -34507,7 +34507,7 @@
         <v>-4908336.596427963</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -34540,7 +34540,7 @@
         <v>-4908336.596427963</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -34573,7 +34573,7 @@
         <v>-4908336.596427963</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -34606,7 +34606,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -34639,7 +34639,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -34672,7 +34672,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -34705,7 +34705,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -34738,7 +34738,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -34771,7 +34771,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -34804,7 +34804,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -34837,7 +34837,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -34870,7 +34870,7 @@
         <v>-5261585.226727963</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -36454,7 +36454,7 @@
         <v>-5338883.822341172</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -36487,7 +36487,7 @@
         <v>-5338883.822341172</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -36520,7 +36520,7 @@
         <v>-5363327.310329457</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -36553,7 +36553,7 @@
         <v>-5363327.310329457</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -36586,7 +36586,7 @@
         <v>-5363327.310329457</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -36619,7 +36619,7 @@
         <v>-5388836.821229457</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -36652,7 +36652,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -36685,7 +36685,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -36718,7 +36718,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -36751,7 +36751,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -36784,7 +36784,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -36850,7 +36850,7 @@
         <v>-5436153.092329456</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -36883,7 +36883,7 @@
         <v>-5475711.484529456</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -36916,7 +36916,7 @@
         <v>-5776578.496720382</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -36949,7 +36949,7 @@
         <v>-5892722.505420382</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -36982,7 +36982,7 @@
         <v>-5806232.524720382</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -37114,7 +37114,7 @@
         <v>-5345087.757220382</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -37147,7 +37147,7 @@
         <v>-5369390.629920382</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -37180,7 +37180,7 @@
         <v>-5369390.629920382</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -37213,7 +37213,7 @@
         <v>-5379895.326620382</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -37246,7 +37246,7 @@
         <v>-5303864.364920382</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -37279,7 +37279,7 @@
         <v>-5228033.583320382</v>
       </c>
       <c r="H1118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -37312,7 +37312,7 @@
         <v>-5228033.583320382</v>
       </c>
       <c r="H1119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -37345,7 +37345,7 @@
         <v>-5228033.583320382</v>
       </c>
       <c r="H1120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -37378,7 +37378,7 @@
         <v>-5238136.348320382</v>
       </c>
       <c r="H1121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -37411,7 +37411,7 @@
         <v>-5231244.843220382</v>
       </c>
       <c r="H1122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -37444,7 +37444,7 @@
         <v>-5247048.256620382</v>
       </c>
       <c r="H1123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -37477,7 +37477,7 @@
         <v>-5277861.181520382</v>
       </c>
       <c r="H1124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -37510,7 +37510,7 @@
         <v>-5217639.448820382</v>
       </c>
       <c r="H1125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -37543,7 +37543,7 @@
         <v>-5236840.385020383</v>
       </c>
       <c r="H1126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -37576,7 +37576,7 @@
         <v>-5199025.015820383</v>
       </c>
       <c r="H1127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -37609,7 +37609,7 @@
         <v>-5208000.898020383</v>
       </c>
       <c r="H1128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -37642,7 +37642,7 @@
         <v>-5309774.741082039</v>
       </c>
       <c r="H1129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -37675,7 +37675,7 @@
         <v>-5309774.741082039</v>
       </c>
       <c r="H1130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -37873,7 +37873,7 @@
         <v>-7292402.150482039</v>
       </c>
       <c r="H1136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -38335,580 +38335,512 @@
         <v>-7261335.533618076</v>
       </c>
       <c r="H1150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1150" t="inlineStr"/>
+      <c r="J1150" t="inlineStr"/>
+      <c r="K1150" t="inlineStr"/>
+      <c r="L1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="1" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B1151" t="n">
         <v>10.26</v>
       </c>
-      <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr">
+      <c r="C1151" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>64949.4154</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>-7326284.949018076</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1151" t="inlineStr"/>
+      <c r="J1151" t="inlineStr"/>
+      <c r="K1151" t="inlineStr"/>
+      <c r="L1151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="1" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>29886.416</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>-7296398.533018076</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1152" t="inlineStr"/>
+      <c r="J1152" t="inlineStr"/>
+      <c r="K1152" t="inlineStr"/>
+      <c r="L1152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="1" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>7104.4807</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>-7289294.052318076</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1153" t="inlineStr"/>
+      <c r="J1153" t="inlineStr"/>
+      <c r="K1153" t="inlineStr"/>
+      <c r="L1153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="1" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>26470.9766</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>-7315765.028918075</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1154" t="inlineStr"/>
+      <c r="J1154" t="inlineStr"/>
+      <c r="K1154" t="inlineStr"/>
+      <c r="L1154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="1" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>38539.3596</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>-7315765.028918075</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1155" t="inlineStr"/>
+      <c r="J1155" t="inlineStr"/>
+      <c r="K1155" t="inlineStr"/>
+      <c r="L1155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="1" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>40851.9434</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>-7356616.972318076</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1156" t="inlineStr"/>
+      <c r="J1156" t="inlineStr"/>
+      <c r="K1156" t="inlineStr"/>
+      <c r="L1156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="1" t="n">
+        <v>1155</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>49283.8574</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>-7356616.972318076</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1157" t="inlineStr"/>
+      <c r="J1157" t="inlineStr"/>
+      <c r="K1157" t="inlineStr"/>
+      <c r="L1157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="1" t="n">
+        <v>1156</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>67558.2754</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>-7289058.696918076</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1158" t="inlineStr"/>
+      <c r="J1158" t="inlineStr"/>
+      <c r="K1158" t="inlineStr"/>
+      <c r="L1158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="1" t="n">
+        <v>1157</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>187170.0205</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>-7476228.717418076</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1159" t="inlineStr"/>
+      <c r="J1159" t="inlineStr"/>
+      <c r="K1159" t="inlineStr"/>
+      <c r="L1159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="1" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>9240.7605</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>-7466987.956918076</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1160" t="inlineStr"/>
+      <c r="J1160" t="inlineStr"/>
+      <c r="K1160" t="inlineStr"/>
+      <c r="L1160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="1" t="n">
+        <v>1159</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>97152.3645</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>-7564140.321418076</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1161" t="inlineStr"/>
+      <c r="J1161" t="inlineStr"/>
+      <c r="K1161" t="inlineStr"/>
+      <c r="L1161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="1" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>115151.6993</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>-7448988.622118075</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1162" t="inlineStr"/>
+      <c r="J1162" t="inlineStr"/>
+      <c r="K1162" t="inlineStr"/>
+      <c r="L1162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="1" t="n">
+        <v>1161</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>22499.105</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>-7471487.727118076</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1163" t="inlineStr"/>
+      <c r="J1163" t="inlineStr"/>
+      <c r="K1163" t="inlineStr"/>
+      <c r="L1163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="1" t="n">
+        <v>1162</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>21704.7441</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>-7449782.983018076</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1164" t="inlineStr"/>
+      <c r="J1164" t="inlineStr"/>
+      <c r="K1164" t="inlineStr"/>
+      <c r="L1164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="1" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>119139.0591</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>-7568922.042118076</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="J1165" t="inlineStr"/>
+      <c r="K1165" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1150" t="inlineStr"/>
-    </row>
-    <row r="1151">
-      <c r="A1151" s="1" t="n">
-        <v>1149</v>
-      </c>
-      <c r="B1151" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="C1151" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="D1151" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="E1151" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="F1151" t="n">
-        <v>64949.4154</v>
-      </c>
-      <c r="G1151" t="n">
-        <v>-7326284.949018076</v>
-      </c>
-      <c r="H1151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1151" t="inlineStr"/>
-    </row>
-    <row r="1152">
-      <c r="A1152" s="1" t="n">
-        <v>1150</v>
-      </c>
-      <c r="B1152" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="C1152" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="D1152" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="E1152" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="F1152" t="n">
-        <v>29886.416</v>
-      </c>
-      <c r="G1152" t="n">
-        <v>-7296398.533018076</v>
-      </c>
-      <c r="H1152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1152" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1152" t="inlineStr"/>
-    </row>
-    <row r="1153">
-      <c r="A1153" s="1" t="n">
-        <v>1151</v>
-      </c>
-      <c r="B1153" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="C1153" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="D1153" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="E1153" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="F1153" t="n">
-        <v>7104.4807</v>
-      </c>
-      <c r="G1153" t="n">
-        <v>-7289294.052318076</v>
-      </c>
-      <c r="H1153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1153" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1153" t="inlineStr"/>
-    </row>
-    <row r="1154">
-      <c r="A1154" s="1" t="n">
-        <v>1152</v>
-      </c>
-      <c r="B1154" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="C1154" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="D1154" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="E1154" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="F1154" t="n">
-        <v>26470.9766</v>
-      </c>
-      <c r="G1154" t="n">
-        <v>-7315765.028918075</v>
-      </c>
-      <c r="H1154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1154" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1154" t="inlineStr"/>
-    </row>
-    <row r="1155">
-      <c r="A1155" s="1" t="n">
-        <v>1153</v>
-      </c>
-      <c r="B1155" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="C1155" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="D1155" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="E1155" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="F1155" t="n">
-        <v>38539.3596</v>
-      </c>
-      <c r="G1155" t="n">
-        <v>-7315765.028918075</v>
-      </c>
-      <c r="H1155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1155" t="inlineStr"/>
-    </row>
-    <row r="1156">
-      <c r="A1156" s="1" t="n">
-        <v>1154</v>
-      </c>
-      <c r="B1156" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="C1156" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="D1156" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="E1156" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="F1156" t="n">
-        <v>40851.9434</v>
-      </c>
-      <c r="G1156" t="n">
-        <v>-7356616.972318076</v>
-      </c>
-      <c r="H1156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1156" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1156" t="inlineStr"/>
-    </row>
-    <row r="1157">
-      <c r="A1157" s="1" t="n">
-        <v>1155</v>
-      </c>
-      <c r="B1157" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="C1157" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="D1157" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="E1157" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="F1157" t="n">
-        <v>49283.8574</v>
-      </c>
-      <c r="G1157" t="n">
-        <v>-7356616.972318076</v>
-      </c>
-      <c r="H1157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1157" t="inlineStr"/>
-    </row>
-    <row r="1158">
-      <c r="A1158" s="1" t="n">
-        <v>1156</v>
-      </c>
-      <c r="B1158" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="C1158" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="D1158" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="E1158" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="F1158" t="n">
-        <v>67558.2754</v>
-      </c>
-      <c r="G1158" t="n">
-        <v>-7289058.696918076</v>
-      </c>
-      <c r="H1158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1158" t="inlineStr"/>
-    </row>
-    <row r="1159">
-      <c r="A1159" s="1" t="n">
-        <v>1157</v>
-      </c>
-      <c r="B1159" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="C1159" t="n">
-        <v>10.32</v>
-      </c>
-      <c r="D1159" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="E1159" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="F1159" t="n">
-        <v>187170.0205</v>
-      </c>
-      <c r="G1159" t="n">
-        <v>-7476228.717418076</v>
-      </c>
-      <c r="H1159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1159" t="inlineStr"/>
-    </row>
-    <row r="1160">
-      <c r="A1160" s="1" t="n">
-        <v>1158</v>
-      </c>
-      <c r="B1160" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="C1160" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="D1160" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="E1160" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="F1160" t="n">
-        <v>9240.7605</v>
-      </c>
-      <c r="G1160" t="n">
-        <v>-7466987.956918076</v>
-      </c>
-      <c r="H1160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1160" t="inlineStr"/>
-    </row>
-    <row r="1161">
-      <c r="A1161" s="1" t="n">
-        <v>1159</v>
-      </c>
-      <c r="B1161" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="C1161" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="D1161" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="E1161" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="F1161" t="n">
-        <v>97152.3645</v>
-      </c>
-      <c r="G1161" t="n">
-        <v>-7564140.321418076</v>
-      </c>
-      <c r="H1161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1161" t="inlineStr"/>
-    </row>
-    <row r="1162">
-      <c r="A1162" s="1" t="n">
-        <v>1160</v>
-      </c>
-      <c r="B1162" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="C1162" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="D1162" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="E1162" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="F1162" t="n">
-        <v>115151.6993</v>
-      </c>
-      <c r="G1162" t="n">
-        <v>-7448988.622118075</v>
-      </c>
-      <c r="H1162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1162" t="inlineStr"/>
-    </row>
-    <row r="1163">
-      <c r="A1163" s="1" t="n">
-        <v>1161</v>
-      </c>
-      <c r="B1163" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="C1163" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="D1163" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="E1163" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="F1163" t="n">
-        <v>22499.105</v>
-      </c>
-      <c r="G1163" t="n">
-        <v>-7471487.727118076</v>
-      </c>
-      <c r="H1163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1163" t="inlineStr"/>
-    </row>
-    <row r="1164">
-      <c r="A1164" s="1" t="n">
-        <v>1162</v>
-      </c>
-      <c r="B1164" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="C1164" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="D1164" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="E1164" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="F1164" t="n">
-        <v>21704.7441</v>
-      </c>
-      <c r="G1164" t="n">
-        <v>-7449782.983018076</v>
-      </c>
-      <c r="H1164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1164" t="inlineStr"/>
-    </row>
-    <row r="1165">
-      <c r="A1165" s="1" t="n">
-        <v>1163</v>
-      </c>
-      <c r="B1165" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="C1165" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="D1165" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="E1165" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="F1165" t="n">
-        <v>119139.0591</v>
-      </c>
-      <c r="G1165" t="n">
-        <v>-7568922.042118076</v>
-      </c>
-      <c r="H1165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -38937,9 +38869,11 @@
         <v>-7568922.042118076</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>10.33</v>
+      </c>
       <c r="J1166" t="inlineStr"/>
       <c r="K1166" t="inlineStr">
         <is>
@@ -38974,9 +38908,11 @@
         <v>-7577904.659418076</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>10.33</v>
+      </c>
       <c r="J1167" t="inlineStr"/>
       <c r="K1167" t="inlineStr">
         <is>
@@ -39050,9 +38986,11 @@
         <v>-7558514.727918076</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>10.27</v>
+      </c>
       <c r="J1169" t="inlineStr"/>
       <c r="K1169" t="inlineStr">
         <is>
@@ -39124,9 +39062,11 @@
         <v>-7421214.132018077</v>
       </c>
       <c r="H1171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>10.3</v>
+      </c>
       <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr">
         <is>
@@ -39161,11 +39101,9 @@
         <v>-7445063.267118077</v>
       </c>
       <c r="H1172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1172" t="n">
-        <v>10.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
       <c r="K1172" t="inlineStr">
         <is>
@@ -39200,9 +39138,11 @@
         <v>-7473597.060018077</v>
       </c>
       <c r="H1173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>10.29</v>
+      </c>
       <c r="J1173" t="inlineStr"/>
       <c r="K1173" t="inlineStr">
         <is>
@@ -39276,9 +39216,11 @@
         <v>-7454738.254826209</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>10.29</v>
+      </c>
       <c r="J1175" t="inlineStr"/>
       <c r="K1175" t="inlineStr">
         <is>
@@ -39391,11 +39333,9 @@
         <v>-7432047.636126208</v>
       </c>
       <c r="H1178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1178" t="n">
-        <v>10.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr">
         <is>
@@ -39430,9 +39370,11 @@
         <v>-7432047.636126208</v>
       </c>
       <c r="H1179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>10.29</v>
+      </c>
       <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr">
         <is>
@@ -39506,9 +39448,11 @@
         <v>-7460359.590426208</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>10.29</v>
+      </c>
       <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr">
         <is>
@@ -39777,11 +39721,9 @@
         <v>-7366695.180787183</v>
       </c>
       <c r="H1188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1188" t="n">
-        <v>10.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr">
         <is>
@@ -39933,16 +39875,20 @@
         <v>-7349695.148287183</v>
       </c>
       <c r="H1192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>10.69</v>
+      </c>
       <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L1192" t="inlineStr"/>
+      <c r="L1192" t="n">
+        <v>1</v>
+      </c>
       <c r="M1192" t="inlineStr"/>
     </row>
     <row r="1193">
@@ -39968,11 +39914,17 @@
         <v>-7360636.605487183</v>
       </c>
       <c r="H1193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>10.76</v>
+      </c>
       <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr"/>
+      <c r="K1193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -40001,11 +39953,17 @@
         <v>-7380837.535087183</v>
       </c>
       <c r="H1194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>10.49</v>
+      </c>
       <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr"/>
+      <c r="K1194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -40034,11 +39992,17 @@
         <v>-7368510.245587183</v>
       </c>
       <c r="H1195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>10.44</v>
+      </c>
       <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr"/>
+      <c r="K1195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -40067,11 +40031,17 @@
         <v>-7362361.286287183</v>
       </c>
       <c r="H1196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>10.48</v>
+      </c>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr"/>
+      <c r="K1196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -40100,11 +40070,17 @@
         <v>-7354375.219387183</v>
       </c>
       <c r="H1197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>10.49</v>
+      </c>
       <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr"/>
+      <c r="K1197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -40133,11 +40109,17 @@
         <v>-7375318.513787183</v>
       </c>
       <c r="H1198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>10.57</v>
+      </c>
       <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr"/>
+      <c r="K1198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -40166,11 +40148,17 @@
         <v>-7396077.084287183</v>
       </c>
       <c r="H1199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>10.54</v>
+      </c>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr"/>
+      <c r="K1199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -40199,11 +40187,17 @@
         <v>-7406100.976187184</v>
       </c>
       <c r="H1200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>10.51</v>
+      </c>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr"/>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -40232,11 +40226,17 @@
         <v>-7384608.422987184</v>
       </c>
       <c r="H1201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>10.44</v>
+      </c>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr"/>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -40265,11 +40265,17 @@
         <v>-7329090.341587184</v>
       </c>
       <c r="H1202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>10.5</v>
+      </c>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr"/>
+      <c r="K1202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -40298,11 +40304,17 @@
         <v>-7405421.048287184</v>
       </c>
       <c r="H1203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>10.58</v>
+      </c>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr"/>
+      <c r="K1203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -40331,11 +40343,17 @@
         <v>-7453517.967787184</v>
       </c>
       <c r="H1204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>10.5</v>
+      </c>
       <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr"/>
+      <c r="K1204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -40364,11 +40382,17 @@
         <v>-7502067.790187184</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>10.46</v>
+      </c>
       <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr"/>
+      <c r="K1205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -40397,11 +40421,17 @@
         <v>-7157894.038687184</v>
       </c>
       <c r="H1206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>10.42</v>
+      </c>
       <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr"/>
+      <c r="K1206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -40430,11 +40460,17 @@
         <v>-7175793.390887183</v>
       </c>
       <c r="H1207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>10.43</v>
+      </c>
       <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr"/>
+      <c r="K1207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -40463,11 +40499,17 @@
         <v>-7122049.720687184</v>
       </c>
       <c r="H1208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>10.41</v>
+      </c>
       <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr"/>
+      <c r="K1208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -40496,11 +40538,17 @@
         <v>-7129100.622887184</v>
       </c>
       <c r="H1209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>10.58</v>
+      </c>
       <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr"/>
+      <c r="K1209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -40529,11 +40577,17 @@
         <v>-7108132.620987184</v>
       </c>
       <c r="H1210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>10.47</v>
+      </c>
       <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr"/>
+      <c r="K1210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -40562,11 +40616,17 @@
         <v>-7125252.045887184</v>
       </c>
       <c r="H1211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>10.53</v>
+      </c>
       <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr"/>
+      <c r="K1211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -40595,11 +40655,17 @@
         <v>-7138204.854087184</v>
       </c>
       <c r="H1212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>10.49</v>
+      </c>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr"/>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -40628,11 +40694,17 @@
         <v>-7172776.338487185</v>
       </c>
       <c r="H1213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>10.43</v>
+      </c>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr"/>
+      <c r="K1213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -40661,11 +40733,17 @@
         <v>-7156807.265387185</v>
       </c>
       <c r="H1214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>10.36</v>
+      </c>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr"/>
+      <c r="K1214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -40694,11 +40772,17 @@
         <v>-7156807.265387185</v>
       </c>
       <c r="H1215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>10.42</v>
+      </c>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr"/>
+      <c r="K1215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -40727,11 +40811,17 @@
         <v>-7203783.591087185</v>
       </c>
       <c r="H1216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>10.42</v>
+      </c>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr"/>
+      <c r="K1216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -40760,11 +40850,17 @@
         <v>-7260754.282687184</v>
       </c>
       <c r="H1217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>10.4</v>
+      </c>
       <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr"/>
+      <c r="K1217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -40793,11 +40889,17 @@
         <v>-7216743.061487185</v>
       </c>
       <c r="H1218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>10.32</v>
+      </c>
       <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr"/>
+      <c r="K1218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -40826,11 +40928,17 @@
         <v>-7362918.058787185</v>
       </c>
       <c r="H1219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>10.4</v>
+      </c>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr"/>
+      <c r="K1219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -40859,11 +40967,17 @@
         <v>-7508467.715787184</v>
       </c>
       <c r="H1220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>10.31</v>
+      </c>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr"/>
+      <c r="K1220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -40897,10 +41011,12 @@
       <c r="I1221" t="n">
         <v>10.3</v>
       </c>
-      <c r="J1221" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="K1221" t="inlineStr"/>
+      <c r="J1221" t="inlineStr"/>
+      <c r="K1221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -40929,15 +41045,15 @@
         <v>-7459049.690087184</v>
       </c>
       <c r="H1222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="n">
-        <v>10.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="J1222" t="inlineStr"/>
       <c r="K1222" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1222" t="n">
@@ -40968,15 +41084,15 @@
         <v>-7472283.429187184</v>
       </c>
       <c r="H1223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="n">
-        <v>10.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="J1223" t="inlineStr"/>
       <c r="K1223" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1223" t="n">
@@ -41007,11 +41123,17 @@
         <v>-7444907.631787185</v>
       </c>
       <c r="H1224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>10.33</v>
+      </c>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr"/>
+      <c r="K1224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -41040,11 +41162,17 @@
         <v>-7471584.586087185</v>
       </c>
       <c r="H1225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>10.4</v>
+      </c>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr"/>
+      <c r="K1225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -41073,11 +41201,17 @@
         <v>-7459953.433187185</v>
       </c>
       <c r="H1226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>10.39</v>
+      </c>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr"/>
+      <c r="K1226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -41106,11 +41240,17 @@
         <v>-7484408.514887185</v>
       </c>
       <c r="H1227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>10.41</v>
+      </c>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr"/>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -41139,11 +41279,17 @@
         <v>-7522114.293787185</v>
       </c>
       <c r="H1228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>10.4</v>
+      </c>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr"/>
+      <c r="K1228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -41180,7 +41326,7 @@
       <c r="J1229" t="inlineStr"/>
       <c r="K1229" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1229" t="n">
@@ -41328,9 +41474,11 @@
         <v>-7217570.214387185</v>
       </c>
       <c r="H1233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>10.46</v>
+      </c>
       <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr">
         <is>
@@ -41365,7 +41513,7 @@
         <v>-7239058.324387185</v>
       </c>
       <c r="H1234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
@@ -41402,7 +41550,7 @@
         <v>-7141801.050387185</v>
       </c>
       <c r="H1235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
@@ -41439,7 +41587,7 @@
         <v>-7271182.222687185</v>
       </c>
       <c r="H1236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
@@ -41513,9 +41661,11 @@
         <v>-7289575.038387185</v>
       </c>
       <c r="H1238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>10.46</v>
+      </c>
       <c r="J1238" t="inlineStr"/>
       <c r="K1238" t="inlineStr">
         <is>
@@ -41624,11 +41774,9 @@
         <v>-7470810.470087186</v>
       </c>
       <c r="H1241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1241" t="n">
-        <v>10.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr">
         <is>
@@ -41663,11 +41811,9 @@
         <v>-7470810.470087186</v>
       </c>
       <c r="H1242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1242" t="n">
-        <v>10.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
       <c r="K1242" t="inlineStr">
         <is>
@@ -41702,11 +41848,9 @@
         <v>-7513952.870887185</v>
       </c>
       <c r="H1243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1243" t="n">
-        <v>10.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr">
         <is>
@@ -41741,11 +41885,9 @@
         <v>-7447086.178087185</v>
       </c>
       <c r="H1244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1244" t="n">
-        <v>10.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr">
         <is>
@@ -41780,11 +41922,9 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1245" t="n">
-        <v>10.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
@@ -41893,11 +42033,9 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1248" t="n">
-        <v>10.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
@@ -41932,11 +42070,9 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1249" t="n">
-        <v>10.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
@@ -41971,11 +42107,9 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1250" t="n">
-        <v>10.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr">
         <is>
@@ -42010,11 +42144,9 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1251" t="n">
-        <v>10.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr">
         <is>
@@ -42049,11 +42181,9 @@
         <v>-7390653.690187185</v>
       </c>
       <c r="H1252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1252" t="n">
-        <v>10.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
       <c r="K1252" t="inlineStr">
         <is>
@@ -42088,11 +42218,9 @@
         <v>-7268262.011687185</v>
       </c>
       <c r="H1253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1253" t="n">
-        <v>10.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr">
         <is>
@@ -42312,16 +42440,18 @@
         <v>-7393822.355587184</v>
       </c>
       <c r="H1259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
       <c r="K1259" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L1259" t="inlineStr"/>
+      <c r="L1259" t="n">
+        <v>1</v>
+      </c>
       <c r="M1259" t="inlineStr"/>
     </row>
     <row r="1260">
@@ -42351,7 +42481,11 @@
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr"/>
+      <c r="K1260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -42380,11 +42514,15 @@
         <v>-7416703.362187184</v>
       </c>
       <c r="H1261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr"/>
+      <c r="K1261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -42413,11 +42551,15 @@
         <v>-7468024.869587185</v>
       </c>
       <c r="H1262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr"/>
+      <c r="K1262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -42446,11 +42588,15 @@
         <v>-7733537.820487184</v>
       </c>
       <c r="H1263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr"/>
+      <c r="K1263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -42479,11 +42625,15 @@
         <v>-7733537.820487184</v>
       </c>
       <c r="H1264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr"/>
+      <c r="K1264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -42512,11 +42662,15 @@
         <v>-7695960.955287185</v>
       </c>
       <c r="H1265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr"/>
+      <c r="K1265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -42545,11 +42699,15 @@
         <v>-7615790.151887185</v>
       </c>
       <c r="H1266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr"/>
+      <c r="K1266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -42578,11 +42736,15 @@
         <v>-7539711.674587185</v>
       </c>
       <c r="H1267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr"/>
+      <c r="K1267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -42611,11 +42773,15 @@
         <v>-7556540.759087184</v>
       </c>
       <c r="H1268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
-      <c r="K1268" t="inlineStr"/>
+      <c r="K1268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1268" t="n">
         <v>1</v>
       </c>
@@ -42644,11 +42810,15 @@
         <v>-7525319.193687185</v>
       </c>
       <c r="H1269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
-      <c r="K1269" t="inlineStr"/>
+      <c r="K1269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1269" t="n">
         <v>1</v>
       </c>
@@ -42677,11 +42847,15 @@
         <v>-7473770.663187184</v>
       </c>
       <c r="H1270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
-      <c r="K1270" t="inlineStr"/>
+      <c r="K1270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1270" t="n">
         <v>1</v>
       </c>
@@ -42710,11 +42884,15 @@
         <v>-7593900.042587184</v>
       </c>
       <c r="H1271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
-      <c r="K1271" t="inlineStr"/>
+      <c r="K1271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1271" t="n">
         <v>1</v>
       </c>
@@ -42743,11 +42921,15 @@
         <v>-7607807.301187185</v>
       </c>
       <c r="H1272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
-      <c r="K1272" t="inlineStr"/>
+      <c r="K1272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1272" t="n">
         <v>1</v>
       </c>
@@ -42776,11 +42958,15 @@
         <v>-7640017.457587184</v>
       </c>
       <c r="H1273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
-      <c r="K1273" t="inlineStr"/>
+      <c r="K1273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1273" t="n">
         <v>1</v>
       </c>
@@ -42809,15 +42995,13 @@
         <v>-7616185.141287184</v>
       </c>
       <c r="H1274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1274" t="n">
-        <v>10.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
       <c r="K1274" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1274" t="n">
@@ -42848,11 +43032,9 @@
         <v>-7596873.786287184</v>
       </c>
       <c r="H1275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1275" t="n">
-        <v>10.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
       <c r="K1275" t="inlineStr">
         <is>
@@ -42887,11 +43069,9 @@
         <v>-7596873.786287184</v>
       </c>
       <c r="H1276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1276" t="n">
-        <v>10.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
       <c r="K1276" t="inlineStr">
         <is>
@@ -42926,11 +43106,9 @@
         <v>-7637782.494487184</v>
       </c>
       <c r="H1277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1277" t="n">
-        <v>10.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
       <c r="K1277" t="inlineStr">
         <is>
@@ -42965,11 +43143,9 @@
         <v>-7610324.265187184</v>
       </c>
       <c r="H1278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1278" t="n">
-        <v>10.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
       <c r="K1278" t="inlineStr">
         <is>
@@ -43004,11 +43180,9 @@
         <v>-7623174.680787184</v>
       </c>
       <c r="H1279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1279" t="n">
-        <v>10.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
       <c r="K1279" t="inlineStr">
         <is>
@@ -43043,11 +43217,9 @@
         <v>-7616005.803587184</v>
       </c>
       <c r="H1280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1280" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
       <c r="K1280" t="inlineStr">
         <is>
@@ -43082,11 +43254,9 @@
         <v>-7629072.449887184</v>
       </c>
       <c r="H1281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1281" t="n">
-        <v>10.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
       <c r="K1281" t="inlineStr">
         <is>
@@ -43121,11 +43291,9 @@
         <v>-7621262.582687184</v>
       </c>
       <c r="H1282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1282" t="n">
-        <v>10.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
       <c r="K1282" t="inlineStr">
         <is>
@@ -43160,11 +43328,9 @@
         <v>-7605858.279487184</v>
       </c>
       <c r="H1283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1283" t="n">
-        <v>10.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
       <c r="K1283" t="inlineStr">
         <is>
@@ -43199,11 +43365,9 @@
         <v>-7640361.196387184</v>
       </c>
       <c r="H1284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1284" t="n">
-        <v>10.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="inlineStr"/>
       <c r="K1284" t="inlineStr">
         <is>
@@ -43238,11 +43402,9 @@
         <v>-7602115.348887184</v>
       </c>
       <c r="H1285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1285" t="n">
-        <v>10.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
       <c r="K1285" t="inlineStr">
         <is>
@@ -43277,11 +43439,9 @@
         <v>-7635203.894187184</v>
       </c>
       <c r="H1286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1286" t="n">
-        <v>10.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="inlineStr"/>
       <c r="K1286" t="inlineStr">
         <is>
@@ -43316,11 +43476,9 @@
         <v>-7684615.758787184</v>
       </c>
       <c r="H1287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1287" t="n">
-        <v>10.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
       <c r="K1287" t="inlineStr">
         <is>
@@ -43355,11 +43513,9 @@
         <v>-7538573.892787184</v>
       </c>
       <c r="H1288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1288" t="n">
-        <v>10.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
       <c r="K1288" t="inlineStr">
         <is>
@@ -43394,11 +43550,9 @@
         <v>-7510858.688887184</v>
       </c>
       <c r="H1289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1289" t="n">
-        <v>10.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
       <c r="K1289" t="inlineStr">
         <is>
@@ -43433,11 +43587,9 @@
         <v>-7559086.095687184</v>
       </c>
       <c r="H1290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1290" t="n">
-        <v>10.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
       <c r="K1290" t="inlineStr">
         <is>
@@ -43472,11 +43624,9 @@
         <v>-7508735.946287183</v>
       </c>
       <c r="H1291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1291" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
       <c r="K1291" t="inlineStr">
         <is>
@@ -43511,11 +43661,9 @@
         <v>-7522311.086387184</v>
       </c>
       <c r="H1292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1292" t="n">
-        <v>10.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
       <c r="K1292" t="inlineStr">
         <is>
